--- a/comment.xlsx
+++ b/comment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="384">
   <si>
     <t>comment</t>
   </si>
@@ -22,200 +22,1190 @@
     <t>like</t>
   </si>
   <si>
-    <t>盖盖最近流量有所下降，我是从刚入站就关注的老粉了，前面几个视频B站推流特别多，后面也逐渐稳定了，我感觉最近播放量惨淡的原因在于盖盖拆分视频的做法，就是同一顿饭出好几个视频，再加上一些广告视频，导致视频平均水平下降明显，盖盖也很少接其他推广，不知道盈利情况如何，其实长视频还是质量不错的，希望盖盖越来越好，多和观众探讨视频方向</t>
-  </si>
-  <si>
-    <t>大家下次想看我吃什么美食呢？https://b23.tv/mall-1rocKG-yAFaNkb4RE</t>
-  </si>
-  <si>
-    <t>这回真是最想吃的一集了。这边吃这个披萨，那边拿剪子绞你耳朵都不疼[doge]</t>
-  </si>
-  <si>
-    <t>主要这皮很薄啊，不爱吃披萨的都心动了</t>
-  </si>
-  <si>
-    <t>你们觉得这个披萨的创意怎么样？意大利人应该会很满意吧[doge]加在披萨里的辣椒酱真的很好吃，有兴趣可以试一下哦https://b23.tv/mall-1rocKG-xofHzofqwi</t>
-  </si>
-  <si>
-    <t>切蒜机和手动切蒜有区别吗？口味一样吗？
-各位姥爷们谁能解答一下吗？
-澄洁感谢🙏</t>
-  </si>
-  <si>
-    <t>只是什么牌子的比较好啊？最近自己做披萨感觉买的芝士口感都一般般…[捂脸]</t>
-  </si>
-  <si>
-    <t>[doge]
-新人还在担心吃不完，
-老人只会担心不够吃</t>
-  </si>
-  <si>
-    <t>04:07 开吃</t>
-  </si>
-  <si>
-    <t>@星之开比 @MorTzz @将千哦 @JOJoNo玛尼 @与青莳 @菲戈没有浙艺 @十级米鹬高菲牛牛 @不吃香菜fzz @星星泡饭Starlight</t>
+    <t>同样都是男主一开始吃了某个东西，同样是最开始登场的就是最终boss,现在漫画最新一话还在打，你说是吧？咒术回战</t>
+  </si>
+  <si>
+    <t>我漫画来的，表示剧情就是重“爽”，槽点确实有。
+有人吐槽怪兽弱点是由男主提供，而非分析人员，没错，在理，完全可以给分析人员，分配一支采集样本的战斗小队，以提高分析效率，看起来会更合理——但是这是“爽文”。</t>
+  </si>
+  <si>
+    <t>啊？这是人啊[微笑]</t>
+  </si>
+  <si>
+    <t>不是这是啥</t>
+  </si>
+  <si>
+    <t>六集看下来，感觉男主变怪兽之后存在感很弱，成长节奏也超级慢。。。正经的场合或严肃的氛围里或热血的场景中永远只有男主在出糗，我都不知道画那么多男主出糗的场景到底想表达什么，这就让我认为男主都三十好几的人了还这么幼稚，从选拔队员那集开始，我就一直在等男主高光，结果集集男主“高能”都是出糗，我都快想不起来男主认真执着坚定不移时候的样子了</t>
+  </si>
+  <si>
+    <t>咱们都是特科队</t>
+  </si>
+  <si>
+    <t>感觉画风挺清新的 而且剧情也还行 为撒是这个评分[思考]</t>
+  </si>
+  <si>
+    <t>男主真的没有那种33岁成熟男性的可靠感觉。
+就一披着大叔皮的16中二小弟。不如承太郎一根毛，</t>
+  </si>
+  <si>
+    <t>《怪兽8号》股市
+青梅竹马，无敌队长女一号
+金发双马尾傲娇，队员女二号</t>
+  </si>
+  <si>
+    <t>《关于我在奶茶店打工偷偷看8号这件事》[脱单doge]</t>
+  </si>
+  <si>
+    <t>好像女主角啊莱诺…</t>
+  </si>
+  <si>
+    <t>可能稍微有点剧透，在意的请跳过。
+当初看到这里时，没想到冰弹可能是伏笔。
+后面莱诺适配6号时才意识到，既然冰弹这么有效，为啥其他队员还都是用的普通炸裂弹。
+只能说莱诺是天选之人吧。
+伊春毕竟是讨伐高专第一毕业的，不能说他没天赋。
+只能说省状元到了清北才发觉自己的渺小。
+而偏偏伊春看中的对手是莱诺。
+莱诺属于那种被上天（作者）选中的类型。
+历史上能够排上编号的大怪兽在8号出现前，只有7个，都被讨伐成功做成了武器。
+而这种编号武器能否使用，纯粹看能否有匹配者出现。
+这就造成了，有1，2，4这样同一时期只有一位匹配者的情况，
+也有3，5，7这样同时有多个匹配者的情况。
+当年怪兽6号，牺牲了第2部队队长（使用4号武器的奇可露母亲，亚白之前的防卫队偶像）跟无数队员，联合了第1部队的支援，才在血染冰封大地的惨况下，将6号讨伐。
+之前6号被称为史上最强怪兽，一方面是它9.6级，并且是冰系大范围自带法攻，另一方面是它能够支配主兽级别的余兽。
+在莱诺出现前，6号武器因为历史上一直没有适配者，而一直无法使用。
+所以伊春比不过莱诺不是他没能力，而是他看上的对手是作者的天选之子w
+另外，第一季演不到，后面莱诺因为过度责任心保护欲陷入自毁情绪快完蛋时，伊春突然爆发，大家才明白，他是种特殊的爆种类型，平时低解放力无法提升，但方法得当的话，能够强力波动式爆种。
+当然，后面9号成boss战力崩坏的情况下，以前的历史也没啥好谈的了…
+毕竟9号既能吞并其他编号怪兽，又能自己创造编号级别的怪兽…
+就，反正战力崩的，看一乐就行。
+不过，我个人觉得，这作品虽然剧情漏洞确实多，后期战力确实崩坏，反派9号确实强的很窒息…
+但真没那么多人骂的那么烂。
+或者说，这作品与其说是烂，不如说是单纯的无聊。
+后期全是最最古老的传统是一对一对战，没啥剧情。
+尽管后期无聊，但比起那些作者恶心人的漫画，这部算不上烂，只是无聊。
+如果你就是喜欢一对一无脑对打（不过脑细推），其实它还挺爽的（当然，别看连载，直接看单行本！连载一个月十几页，谁都要骂街！）</t>
+  </si>
+  <si>
+    <t>是走路菇，能吃（串台了[2233娘_大笑]）</t>
+  </si>
+  <si>
+    <t>07:45 我CF动了 我不玩了</t>
+  </si>
+  <si>
+    <t>男主也有天赋的[脱单doge]</t>
+  </si>
+  <si>
+    <t>动画过半还没进入正题的感觉，因为男主没变身时完全没有怪兽力量，变身后又强过头，所以他自己作为普通队员的“励志”成长说实在找不到意义，怎么说呢，你说你想做热血你偏偏整个滑稽大叔没有以平凡身躯努力进步的空间，又想和8号做反差帅，不能既要又要，后面就不好做了，这种寄宿boss类型的，都有个双线成长，也是为了后面故事能够合理展开且聚焦在主角身上，而卡夫卡已经没救了，不借助怪兽之力战斗力看不到可能性何必还拖在这个阶段
+如果后面变得能影响到本体了，那前面的努力也是无效的篇幅</t>
+  </si>
+  <si>
+    <t>说真的这个动画改编已经很优秀了啊
+真的不知道要什么自行车</t>
+  </si>
+  <si>
+    <t>这节奏也太慢了，太黏牙了。</t>
+  </si>
+  <si>
+    <t>必须第一</t>
+  </si>
+  <si>
+    <t>左下角那两个我想笑[doge]</t>
+  </si>
+  <si>
+    <t>假如说寄宿怪兽整一个自己人类身体能力成长上限100%，有一个战力解放1%-100%的明线进度，然后碰到大事了再变怪兽升级战斗，怪兽设定加个变身多了就越不容易变回来，所以能不用就不用，这样作为人类去努力成长就合情合理，剧情和团队也更好展开
+那么按前六集这样做就会好很多，而不是像这样没有明线进度，光是靠着变身这一口看点总不能呆着那么长一段</t>
+  </si>
+  <si>
+    <t>剧情有的地方确实有一点点拖拉，但是分也不至于这么低把</t>
+  </si>
+  <si>
+    <t>算吗？</t>
+  </si>
+  <si>
+    <t>哇，这弹幕，这才几个小时啊</t>
+  </si>
+  <si>
+    <t>第一[doge][doge][doge]</t>
+  </si>
+  <si>
+    <t>来了，怪兽8号，这集对应12话的标题，黎明时分的相模讨伐战</t>
+  </si>
+  <si>
+    <t>[吃瓜]没有什么比刚洗完澡吹着空调躺穿上关上灯戴上耳机慢慢看更加惬意了</t>
+  </si>
+  <si>
+    <t>卡点！</t>
+  </si>
+  <si>
+    <t>盖亚！！！！！！！！</t>
+  </si>
+  <si>
+    <t>再不更新我都要被钓成翘嘴了[委屈]</t>
+  </si>
+  <si>
+    <t>怪兽8号男主。一阶一阶往上升级。就当看小说了。小说里面不就是一阶斗志气，二阶斗志气 到后来的剑宗，剑圣 斗皇 一步一步成为伟大的强者。</t>
+  </si>
+  <si>
+    <t>好别扭啊</t>
+  </si>
+  <si>
+    <t>必然第一啊</t>
+  </si>
+  <si>
+    <t>剧本统筹。。。是大河内？？？[吃瓜]</t>
+  </si>
+  <si>
+    <t>一开始副队长说过：“一般人都会有至少1%的怪兽装备适应度，这家伙不会是百分之一都没有吧？”
+依照这句话来想，“怪兽装备适应度”会不会是怪兽基因污染程度？毕竟怪兽都是生物类型，是某种污染导致的异变也不奇怪。依照这个方向走，当怪兽8号对着男主说“找到了”的意思就是“终于找到没有被污染的人类（共生体）”，之后就是男主逐渐适应怪兽装备，也意味着他慢慢不再是人类。</t>
+  </si>
+  <si>
+    <t>[doge][爱心][脱单doge]</t>
+  </si>
+  <si>
+    <t>更适合做成好莱坞爆米花电影，或者网飞改编日剧的感觉，出个3部电影，然后票房大卖，出一大堆外传，衍生剧什么的</t>
+  </si>
+  <si>
+    <t>实在不理解动漫竟然比漫画快的番，两个都让我煎熬</t>
+  </si>
+  <si>
+    <t>其实看漫画的时候就有疑问，专业军队对怪兽的解析能力难道还没有后勤处理了解怪兽吗，男主这个对怪兽的了解真作者的欠考虑，没有太多铺垫</t>
+  </si>
+  <si>
+    <t>分还是高了</t>
+  </si>
+  <si>
+    <t>片尾曲大家听了吗，好好听啊，翻译的真好[大哭]</t>
+  </si>
+  <si>
+    <t>男主动不动就搞笑这个桥段是不是太密了</t>
+  </si>
+  <si>
+    <t>不</t>
+  </si>
+  <si>
+    <t>都1点半了，这个1w+认真的？</t>
+  </si>
+  <si>
+    <t>(〜￣▽￣)〜</t>
+  </si>
+  <si>
+    <t>哇</t>
+  </si>
+  <si>
+    <t>阎王都是笑着站在弹幕和评论区拿着生死簿[脱单doge]</t>
+  </si>
+  <si>
+    <t>哈哈</t>
+  </si>
+  <si>
+    <t>来了</t>
+  </si>
+  <si>
+    <t>牛皮</t>
+  </si>
+  <si>
+    <t>1.5万了</t>
+  </si>
+  <si>
+    <t>启动！</t>
   </si>
   <si>
     <t>第一</t>
   </si>
   <si>
-    <t>盖盖可以来东北探店嘛[星星眼][星星眼]</t>
+    <t>不够看啊</t>
+  </si>
+  <si>
+    <t>不够看！</t>
+  </si>
+  <si>
+    <t>九号出来了</t>
+  </si>
+  <si>
+    <t>3.1万了</t>
+  </si>
+  <si>
+    <t>2.9万了</t>
+  </si>
+  <si>
+    <t>啊啊啊为什么就没了</t>
+  </si>
+  <si>
+    <t>真就好想看男主再爽一次啊[罗小黑_加油]</t>
+  </si>
+  <si>
+    <t>感觉一般</t>
+  </si>
+  <si>
+    <t>[吃瓜][吃瓜]晚上好</t>
+  </si>
+  <si>
+    <t>这一集还可以，把让居民避难，然后组织合作，还有新人表现之类的都做出来了，并且控制了卡夫卡的气氛破坏，就只在前面晕车，还有以为自己很强那一块儿，后面就没有了，要是再出现的话，就太破坏气氛了</t>
+  </si>
+  <si>
+    <t>[doge]</t>
+  </si>
+  <si>
+    <t>过家家的游戏结束了</t>
+  </si>
+  <si>
+    <t>阎王：怎么生死簿上有一堆名字闪来闪去？？
+。
+。
+。
+。
+原来是怪兽8号更新了
+垂死病中，阎王夸我们身体好！</t>
+  </si>
+  <si>
+    <t>善</t>
+  </si>
+  <si>
+    <t>yes !</t>
+  </si>
+  <si>
+    <t>9号：想我的事？[脱单doge]</t>
+  </si>
+  <si>
+    <t>2.2万+人正在观看</t>
+  </si>
+  <si>
+    <t>[脱单doge][脱单doge]</t>
+  </si>
+  <si>
+    <t>没看够啊[辣眼睛]</t>
+  </si>
+  <si>
+    <t>中年版绿谷出久是吧[灵魂出窍]</t>
+  </si>
+  <si>
+    <t>[歪嘴][歪嘴][歪嘴][歪嘴]</t>
+  </si>
+  <si>
+    <t>[脱单doge]</t>
+  </si>
+  <si>
+    <t>大干一场</t>
+  </si>
+  <si>
+    <t>[洛天依][洛天依][洛天依][洛天依]</t>
+  </si>
+  <si>
+    <t>一集也太快了吧[微笑]</t>
+  </si>
+  <si>
+    <t>动画已经渐入佳境了</t>
+  </si>
+  <si>
+    <t>友情提示：这集对密恐玩家不太友好[妙啊]</t>
+  </si>
+  <si>
+    <t>下一集应该就是男主变身揍9号了</t>
+  </si>
+  <si>
+    <t>我才是第一</t>
+  </si>
+  <si>
+    <t>太六了直接100多</t>
+  </si>
+  <si>
+    <t>好可爱好可爱好好磕啊啊啊啊～[打call][打call]</t>
+  </si>
+  <si>
+    <t>也还行，好过史莱姆3，每集都在重复开会，重复内容。</t>
+  </si>
+  <si>
+    <t>[香奈美·追寻那道光 应援装扮_mvp][香奈美·追寻那道光 应援装扮_mvp]</t>
+  </si>
+  <si>
+    <t>9号好像卡列卡列星人，看漫画的时候都没觉得，动画给他配的那个音效就特别像</t>
+  </si>
+  <si>
+    <t>巢蟲領主表示很贊</t>
+  </si>
+  <si>
+    <t>一路看下来觉得回忆画面太多了吧[灵魂出窍]</t>
+  </si>
+  <si>
+    <t>一个防卫队，队员不应该对怪兽的结构都有了解才对吗，半路入队的不算，至少像奇可露这种上过专门针对怪兽防卫学校的，基础课程应该会有怪兽解剖之类的吧，况且防卫队还有技术人员，但是目前看来除了喊出怪兽等级和队员解放战力以外并没有什么实际价值，比起技术人员更像解说[笑哭]，作者太想强调卡夫卡的作用了，导致整个防卫队的设定有点儿崩</t>
+  </si>
+  <si>
+    <t>这季boss是打谁？九号？？</t>
+  </si>
+  <si>
+    <t>剧情很平淡，全靠画风撑</t>
+  </si>
+  <si>
+    <t>[打call][打call][打call]</t>
+  </si>
+  <si>
+    <t>孩子们，我也是怪兽</t>
+  </si>
+  <si>
+    <t>来了来了 掐着点儿来的[doge]</t>
+  </si>
+  <si>
+    <t>我就知道这最后会停到那个位置[笑哭]别的还可以，就是太拖了吧</t>
+  </si>
+  <si>
+    <t>我TM来啦[怪兽8号_开心][怪兽8号_开心][怪兽8号_开心]</t>
+  </si>
+  <si>
+    <t>下一集啊，我什么都不会做的</t>
+  </si>
+  <si>
+    <t>平均两集变一次身吗</t>
+  </si>
+  <si>
+    <t>不够看啊～感觉这一季只能看到打四宫她爹</t>
+  </si>
+  <si>
+    <t>蹲点哈哈哈哈[保卫萝卜_哇][保卫萝卜_哇]</t>
+  </si>
+  <si>
+    <t>[脱单doge][脱单doge][脱单doge]</t>
+  </si>
+  <si>
+    <t>第一！！</t>
+  </si>
+  <si>
+    <t>啊 第五节没有说男主是怪兽8号啊 怎么第六开局就说他是怪兽八号</t>
+  </si>
+  <si>
+    <t>评分高了</t>
+  </si>
+  <si>
+    <t>队长太帅了[喜欢][喜欢][喜欢]</t>
+  </si>
+  <si>
+    <t>芜湖！</t>
+  </si>
+  <si>
+    <t>一集根本不够[龙年]</t>
+  </si>
+  <si>
+    <t>是不是往后8号9号10号这些是越来越强的敌人，最终boss是0号</t>
+  </si>
+  <si>
+    <t>这个是同步？</t>
+  </si>
+  <si>
+    <t>很好 每次看完都像没看一样 推动太慢了啊啊啊啊啊啊</t>
+  </si>
+  <si>
+    <t>在在在在在在在在</t>
+  </si>
+  <si>
+    <t>好耶</t>
+  </si>
+  <si>
+    <t>为什么我看到子弹性质炸裂和冻结想到了明日之后里的异变核芯</t>
+  </si>
+  <si>
+    <t>有怪兽下一集要挨揍了，是谁捏（8号脸）</t>
+  </si>
+  <si>
+    <t>[吃瓜][吃瓜][吃瓜][吃瓜][吃瓜][吃瓜][吃瓜][吃瓜][吃瓜][吃瓜][吃瓜]</t>
+  </si>
+  <si>
+    <t>怎么感觉画风有点动画版博人传那味</t>
+  </si>
+  <si>
+    <t>必须到位</t>
+  </si>
+  <si>
+    <t>[星星眼][星星眼][星星眼][星星眼][星星眼][星星眼]</t>
+  </si>
+  <si>
+    <t>再给我看一集啊，求求了！！！！！[小电视_好怒啊]</t>
+  </si>
+  <si>
+    <t>无聊的动员和目标能不能改到打怪兽里面啊。</t>
+  </si>
+  <si>
+    <t>可恶，看完就好孤独[委屈][委屈][委屈]</t>
+  </si>
+  <si>
+    <t>副队祖传的手艺活儿是真的强啊</t>
+  </si>
+  <si>
+    <t>8.7了</t>
+  </si>
+  <si>
+    <t>晚睡的人儿有番看</t>
+  </si>
+  <si>
+    <t>各位下个星期见[OK]</t>
+  </si>
+  <si>
+    <t>嗯</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>不是哥们，你们一般来说不是所有队员都应该对怪兽构造熟悉吗？坐学就叫你们战术跟打枪了？搞得男主动手前队里没个人去收集怪兽情报的是吧？</t>
+  </si>
+  <si>
+    <t>好困但还是想看[阴险]</t>
+  </si>
+  <si>
+    <t>我来</t>
+  </si>
+  <si>
+    <t>让我再看一集啊啊啊啊啊</t>
+  </si>
+  <si>
+    <t>对怪兽特化三星极制服</t>
+  </si>
+  <si>
+    <t>蹲</t>
+  </si>
+  <si>
+    <t>啊哈</t>
+  </si>
+  <si>
+    <t>呦西</t>
+  </si>
+  <si>
+    <t>来来来</t>
+  </si>
+  <si>
+    <t>好</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>[幸运花花_吃瓜]</t>
+  </si>
+  <si>
+    <t>哟西</t>
+  </si>
+  <si>
+    <t>耶耶耶</t>
+  </si>
+  <si>
+    <t>来啦来啦</t>
+  </si>
+  <si>
+    <t>来了来了</t>
+  </si>
+  <si>
+    <t>拿下</t>
+  </si>
+  <si>
+    <t>烫死了</t>
+  </si>
+  <si>
+    <t>来了[吃瓜]</t>
+  </si>
+  <si>
+    <t>来了[OK]</t>
+  </si>
+  <si>
+    <t>凌晨一点还有人</t>
+  </si>
+  <si>
+    <t>苹果跟安卓不是同步更新的吗</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>来了[doge]</t>
+  </si>
+  <si>
+    <t>[OK][OK]</t>
+  </si>
+  <si>
+    <t>114514</t>
+  </si>
+  <si>
+    <t>兄弟们，下个星期看九号</t>
+  </si>
+  <si>
+    <t>我要开始屯了[脱单doge]</t>
+  </si>
+  <si>
+    <t>热血民工漫</t>
+  </si>
+  <si>
+    <t>好看[给心心]</t>
+  </si>
+  <si>
+    <t>第一第一 沙发</t>
+  </si>
+  <si>
+    <t>[来古-注意]</t>
+  </si>
+  <si>
+    <t>[辣眼睛]</t>
+  </si>
+  <si>
+    <t>我嘞个雷终于来了</t>
+  </si>
+  <si>
+    <t>[星星眼][星星眼]</t>
+  </si>
+  <si>
+    <t>芜湖</t>
+  </si>
+  <si>
+    <t>来了[大笑]</t>
+  </si>
+  <si>
+    <t>感觉还差一点 就能跟上咒术了 但是实在讲不出来到底是差在哪了[疑惑]</t>
+  </si>
+  <si>
+    <t>来咯</t>
+  </si>
+  <si>
+    <t>豪堪</t>
+  </si>
+  <si>
+    <t>，，</t>
+  </si>
+  <si>
+    <t>养养弹幕再看[doge]</t>
+  </si>
+  <si>
+    <t>[doge][打call]</t>
+  </si>
+  <si>
+    <t>来了来了[星星眼]</t>
   </si>
   <si>
     <t>第二</t>
   </si>
   <si>
-    <t>第一个三连</t>
-  </si>
-  <si>
-    <t>做做看千层面吧（第三次）</t>
-  </si>
-  <si>
-    <t>UP是只在B站发视频吗</t>
-  </si>
-  <si>
-    <t>馋死了[喜欢]</t>
-  </si>
-  <si>
-    <t>盖盖要不要试试接广告呢，多少可以多一些收入</t>
-  </si>
-  <si>
-    <t>盖盖终于做披萨了！好耶！[星星眼]</t>
-  </si>
-  <si>
-    <t>妈呀吃的好香</t>
-  </si>
-  <si>
-    <t>好想吃</t>
-  </si>
-  <si>
-    <t>[doge]</t>
-  </si>
-  <si>
-    <t>不行了我要饿死了</t>
+    <t>不理解干嘛要说俩女孩都该配主角啊？还选妃，又不是后宫番。。。某些人别yy了。。而且也没有他们说的这么烂，本人看完漫画其实还好，个人觉得还是蛮符合我的胃口，只是前期剧情太快了点，动漫还是值得大家看一下的。评分这么低我都怀疑好多跟风的，，</t>
+  </si>
+  <si>
+    <t>市川你别太爱了</t>
+  </si>
+  <si>
+    <t>来了！！！[打call]</t>
+  </si>
+  <si>
+    <t>闹！闹！闹！</t>
+  </si>
+  <si>
+    <t>芜湖[脱单doge]</t>
+  </si>
+  <si>
+    <t>科保太帅了[大哭]漫画里更帅！</t>
+  </si>
+  <si>
+    <t>其实有个很重的槽点，男主明明设定是大叔，结果还是传统少年漫男主的展开。不说跟其他少年漫男主虎杖路飞比，就是同一个作品里的青年队员都比大叔显得成熟，该怎么说呢，有一股热血纯真的味道，要说设定16岁我觉得很好，设定30+岁这副样子就有点反胃了。</t>
+  </si>
+  <si>
+    <t>亚白这脸？</t>
+  </si>
+  <si>
+    <t>迟到了</t>
+  </si>
+  <si>
+    <t>更新了家人们！！！！[星星眼]</t>
+  </si>
+  <si>
+    <t>第一个</t>
+  </si>
+  <si>
+    <t>[龙年]</t>
+  </si>
+  <si>
+    <t>来里</t>
+  </si>
+  <si>
+    <t>来啦[保卫萝卜_哇]</t>
+  </si>
+  <si>
+    <t>你保护了什么啊！</t>
+  </si>
+  <si>
+    <t>盖亚——</t>
+  </si>
+  <si>
+    <t>3.3万了</t>
+  </si>
+  <si>
+    <t>到！[脱单doge]</t>
+  </si>
+  <si>
+    <t>啊啊啊啊</t>
+  </si>
+  <si>
+    <t>这么短吗</t>
+  </si>
+  <si>
+    <t>啊啊啊啊啊啊</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>好短 不够看啊啊啊啊</t>
+  </si>
+  <si>
+    <t>好短啊啊啊啊</t>
+  </si>
+  <si>
+    <t>第一！</t>
+  </si>
+  <si>
+    <t>突然间冒出来这么多人[辣眼睛]</t>
+  </si>
+  <si>
+    <t>道反天罡[生病]</t>
+  </si>
+  <si>
+    <t>哈哈哈哈哈哈哈[怪兽8号_开心][怪兽8号_开心][怪兽8号_开心]</t>
+  </si>
+  <si>
+    <t>卡夫卡亚白好好好</t>
+  </si>
+  <si>
+    <t>怎么感觉有点高开低走的赶脚</t>
+  </si>
+  <si>
+    <t>烂不烂是自己决定的</t>
+  </si>
+  <si>
+    <t>BOSS这么快暴露了？</t>
+  </si>
+  <si>
+    <t>不够看，根本不够看，多更点！</t>
+  </si>
+  <si>
+    <t>蹲点蹲到</t>
+  </si>
+  <si>
+    <t>更新啦！！！！！</t>
+  </si>
+  <si>
+    <t>呜呜呜不够看</t>
+  </si>
+  <si>
+    <t>感觉评分低是有原因的</t>
+  </si>
+  <si>
+    <t>我得15块[大哭]</t>
+  </si>
+  <si>
+    <t>根本不够看</t>
+  </si>
+  <si>
+    <t>[doge][doge]</t>
+  </si>
+  <si>
+    <t>急急急[大哭]</t>
+  </si>
+  <si>
+    <t>晚睡的孩子有番看[OK]</t>
+  </si>
+  <si>
+    <t>关键时刻没了，卧槽，还要等七天</t>
+  </si>
+  <si>
+    <t>粉毛和莱诺不会要直面九号吧（</t>
+  </si>
+  <si>
+    <t>睡觉，大家晚安！！！</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>来力</t>
+  </si>
+  <si>
+    <t>主角能巨大化吗</t>
+  </si>
+  <si>
+    <t>好乱</t>
+  </si>
+  <si>
+    <t>感觉一集的战斗都不够看的样子</t>
+  </si>
+  <si>
+    <t>[打call][打call]</t>
+  </si>
+  <si>
+    <t>[星星眼][星星眼][星星眼]</t>
+  </si>
+  <si>
+    <t>我靠[脱单doge][脱单doge][脱单doge]</t>
+  </si>
+  <si>
+    <t>奥利给</t>
+  </si>
+  <si>
+    <t>美女</t>
+  </si>
+  <si>
+    <t>完蛋，燃不起来，是我的问题吗？</t>
+  </si>
+  <si>
+    <t>还没看够就没了[保卫萝卜_哭哭]</t>
+  </si>
+  <si>
+    <t>来哩</t>
+  </si>
+  <si>
+    <t>卡夫卡nb！</t>
+  </si>
+  <si>
+    <t>戴着半面罩打过喷嚏，很难受，8号要是吐在里面的话，估计很难处理了</t>
+  </si>
+  <si>
+    <t>休刊8号[Cat2_Boom!]</t>
+  </si>
+  <si>
+    <t>保科的声音真的挺池面的</t>
+  </si>
+  <si>
+    <t>结尾又在吸引读者！！！不够看啊！！</t>
+  </si>
+  <si>
+    <t>这些余兽真像蜘蛛子[doge]</t>
   </si>
   <si>
     <t>[星星眼][星星眼][星星眼][星星眼][星星眼]</t>
   </si>
   <si>
-    <t>肉酱披萨好好好</t>
-  </si>
-  <si>
-    <t>盖盖能不能分享一下薄皮披萨底的配方，看得我也想做来吃了[脱单doge][脱单doge]</t>
-  </si>
-  <si>
-    <t>好香，芝士是真好吃[星星眼]</t>
-  </si>
-  <si>
-    <t>莱益塔的芝士不错，寒假在里面干过一个月</t>
-  </si>
-  <si>
-    <t>这看起来也太好吃了吧[星星眼]</t>
-  </si>
-  <si>
-    <t>饿了</t>
-  </si>
-  <si>
-    <t>好想吃一口[抓狂]</t>
-  </si>
-  <si>
-    <t>香迷糊了啊，给我吃一片就行！！！</t>
-  </si>
-  <si>
-    <t>意大利🇮🇹菜[打call][打call][打call]</t>
-  </si>
-  <si>
-    <t>芝士就是力量[doge]</t>
-  </si>
-  <si>
-    <t>说实话，不爱吃芝士这种东西[吃瓜]</t>
-  </si>
-  <si>
-    <t>感谢你！亲爱的谢尔盖。你的视频真的很治愈，观看你制作食物的过程令我缓解了焦虑[打call]</t>
-  </si>
-  <si>
-    <t>致死量芝士.jpg</t>
-  </si>
-  <si>
-    <t>好厉害超级催眠</t>
-  </si>
-  <si>
-    <t>大晚上看到这视频，想点夜宵了[辣眼睛]</t>
-  </si>
-  <si>
-    <t>直播制作全过程真的是非常棒的点子！</t>
-  </si>
-  <si>
-    <t>我想去你家吃饭</t>
-  </si>
-  <si>
-    <t>试试能吃下多少个酱肉包子[星星眼]</t>
-  </si>
-  <si>
-    <t>想看你把胡子剃了[doge]</t>
-  </si>
-  <si>
-    <t>从下四十度的地方，搬到零上四十度的地方，就跨越了七十度。[微笑]</t>
-  </si>
-  <si>
-    <t>减脂期刷到没谁了[笑哭]</t>
-  </si>
-  <si>
-    <t>能吃下海鲜不，</t>
-  </si>
-  <si>
-    <t>这玩意到半夜去看才会更饿[doge]</t>
-  </si>
-  <si>
-    <t>芝士就是力量[星星眼][星星眼]</t>
-  </si>
-  <si>
-    <t>热量炸弹了……[tv_冷漠]</t>
-  </si>
-  <si>
-    <t>[星星眼][星星眼][星星眼][星星眼]求求盖嫂的锻炼方法！！！！</t>
-  </si>
-  <si>
-    <t>这三种芝士有哪些区别啊</t>
-  </si>
-  <si>
-    <t>看饿了[笑哭]</t>
-  </si>
-  <si>
-    <t>第一次来这么早。小龙虾上市了，盖盖什么时候搞一锅[吃瓜]</t>
-  </si>
-  <si>
-    <t>一[星星眼]</t>
-  </si>
-  <si>
-    <t>看饿了，吃饭去</t>
-  </si>
-  <si>
-    <t>盖盖更新的真的好快[喜欢]爱了</t>
-  </si>
-  <si>
-    <t>第一次那么早[doge]</t>
-  </si>
-  <si>
-    <t>今天好早，前排！！</t>
-  </si>
-  <si>
-    <t>怎么就这么点播放量</t>
-  </si>
-  <si>
-    <t>🍕🧀🍕🧀🍕🧀🍕</t>
+    <t>女主下飞机是和cf联动了吗  什么鬼音效</t>
+  </si>
+  <si>
+    <t>[墨镜]</t>
+  </si>
+  <si>
+    <t>[吃瓜]</t>
+  </si>
+  <si>
+    <t>男主高光那段逻辑上说服力有点差，有点出戏...</t>
+  </si>
+  <si>
+    <t>下星期见[脱单doge]</t>
+  </si>
+  <si>
+    <t>芜湖[doge]</t>
+  </si>
+  <si>
+    <t>jj</t>
+  </si>
+  <si>
+    <t>来！</t>
+  </si>
+  <si>
+    <t>好诶</t>
+  </si>
+  <si>
+    <t>好想看[大哭][大哭][大哭]</t>
+  </si>
+  <si>
+    <t>好看，动漫是真的好看。</t>
+  </si>
+  <si>
+    <t>对应漫画多少集</t>
+  </si>
+  <si>
+    <t>真的不过瘾啊[灵魂出窍]</t>
+  </si>
+  <si>
+    <t>趁热咬一口[打call]</t>
+  </si>
+  <si>
+    <t>哦豁！这不是巧了吗[吃瓜]</t>
+  </si>
+  <si>
+    <t>蹲点我是第一人[脱单doge]</t>
+  </si>
+  <si>
+    <t>8号白板数值怪，作者是不是想玩白金那套[微笑]</t>
+  </si>
+  <si>
+    <t>热乎的吧[doge]</t>
+  </si>
+  <si>
+    <t>一直觉得手套像faiz的手套</t>
+  </si>
+  <si>
+    <t>刚刚好[星星眼]</t>
+  </si>
+  <si>
+    <t>下集开打[喜欢][喜欢][喜欢]</t>
+  </si>
+  <si>
+    <t>这个点更新？</t>
+  </si>
+  <si>
+    <t>这些个怪物的设定，很像死亡黑标啊，BETA生物也是这种既视感，虽然死亡黑标的设定也是抄星际的就是了</t>
+  </si>
+  <si>
+    <t>怪兽8号</t>
+  </si>
+  <si>
+    <t>我想问问第六话是更到漫画哪里</t>
+  </si>
+  <si>
+    <t>@张张张板栗 更新了快来[给心心]</t>
+  </si>
+  <si>
+    <t>准时</t>
+  </si>
+  <si>
+    <t>[OK]</t>
+  </si>
+  <si>
+    <t>来啦</t>
+  </si>
+  <si>
+    <t>来了开咯</t>
+  </si>
+  <si>
+    <t>真“准时”[doge]</t>
+  </si>
+  <si>
+    <t>我还想说第一呢，你们这群小机灵鬼</t>
+  </si>
+  <si>
+    <t>二点八万太猛了</t>
+  </si>
+  <si>
+    <t>啊啊啊啊啊啊啊啊啊密恐炸裂</t>
+  </si>
+  <si>
+    <t>熬夜的孩子有番看</t>
+  </si>
+  <si>
+    <t>蹲点成功</t>
+  </si>
+  <si>
+    <t>盖亚！！！～</t>
+  </si>
+  <si>
+    <t>吃口热乎的</t>
+  </si>
+  <si>
+    <t>男主以一定要那么搞嘛，有的小尬[辣眼睛]</t>
+  </si>
+  <si>
+    <t>芜湖～</t>
+  </si>
+  <si>
+    <t>我能看到这集真不容易。[滑稽]</t>
+  </si>
+  <si>
+    <t>准时来了同志们</t>
+  </si>
+  <si>
+    <t>因为漫画后面烂了，影响到动画的评分</t>
+  </si>
+  <si>
+    <t>早来的怪兽有番看[脱单doge]</t>
+  </si>
+  <si>
+    <t>来啦[OK]</t>
+  </si>
+  <si>
+    <t>[星星眼]</t>
+  </si>
+  <si>
+    <t>希望动画组接下来能够不照掰原作，还有多给亚白一些镜头[脱单doge]</t>
+  </si>
+  <si>
+    <t>早，但是又不早</t>
+  </si>
+  <si>
+    <t>我先来[龙年]</t>
+  </si>
+  <si>
+    <t>论现在的实力第三队没有一个能打的，怪兽8号能爆杀全队[妙啊]</t>
+  </si>
+  <si>
+    <t>来晚了[脱单doge]</t>
+  </si>
+  <si>
+    <t>[微笑]</t>
+  </si>
+  <si>
+    <t>1人正在看</t>
+  </si>
+  <si>
+    <t>来了！</t>
+  </si>
+  <si>
+    <t>到现在为止感觉还可以唉，爽了，打算去看看漫画</t>
+  </si>
+  <si>
+    <t>这次怪兽的头有点像吉翁的陆地巡洋舰啊</t>
+  </si>
+  <si>
+    <t>又更期待下一级啦   ! ! ! ! !   !   !</t>
+  </si>
+  <si>
+    <t>嗨嗨嗨，来了奥</t>
+  </si>
+  <si>
+    <t>啊！！！！！不够看啊！！！为什么一周只有一集啊！！！</t>
+  </si>
+  <si>
+    <t>下一集才是大战吗[笑哭]</t>
+  </si>
+  <si>
+    <t>不是，你们都住这里了嘛，这么及时[妙啊]</t>
+  </si>
+  <si>
+    <t>看的真是憋死我了[大哭]</t>
+  </si>
+  <si>
+    <t>啊………各位，这已经第六话了</t>
+  </si>
+  <si>
+    <t>刚刚好[打call][龙年]</t>
+  </si>
+  <si>
+    <t>第五十六！</t>
+  </si>
+  <si>
+    <t>趁热</t>
+  </si>
+  <si>
+    <t>保科好帅[星星眼]</t>
+  </si>
+  <si>
+    <t>热血少一点，逗比到时挺多[doge]</t>
+  </si>
+  <si>
+    <t>卡点成功</t>
+  </si>
+  <si>
+    <t>热乎</t>
+  </si>
+  <si>
+    <t>[给心心]</t>
+  </si>
+  <si>
+    <t>闪现！</t>
+  </si>
+  <si>
+    <t>来啦！[doge]</t>
+  </si>
+  <si>
+    <t>无敌</t>
+  </si>
+  <si>
+    <t>我来！</t>
+  </si>
+  <si>
+    <t>自卫队是炮兵部队吗？不是说日本不允许有军队吗</t>
+  </si>
+  <si>
+    <t>你追的番更新力[脱单doge]</t>
+  </si>
+  <si>
+    <t>哈？都还没有预告</t>
+  </si>
+  <si>
+    <t>来力[打call]</t>
+  </si>
+  <si>
+    <t>看了漫画，这不就是另一部咒术回战吗[捂眼]</t>
+  </si>
+  <si>
+    <t>男主：论怪兽构造解析，在下也算是队里top级别()</t>
+  </si>
+  <si>
+    <t>来晚了</t>
+  </si>
+  <si>
+    <t>说实话故事是有一定的吸引度的 但是槽点也是颇多</t>
+  </si>
+  <si>
+    <t>亚白还是那么的帅，大武器远距离射击太有魄力了</t>
+  </si>
+  <si>
+    <t>感觉进度有点慢，第三集开始，每一集有印象的情节很少</t>
+  </si>
+  <si>
+    <t>[打call]</t>
+  </si>
+  <si>
+    <t>等会再看</t>
+  </si>
+  <si>
+    <t>这个番如果走特摄路线，每集讲故事有主兽变身打怪不挺好的吗</t>
+  </si>
+  <si>
+    <t>哎呀，深更半夜，一万多人围观</t>
+  </si>
+  <si>
+    <t>wdf，好快
+[妙啊]</t>
+  </si>
+  <si>
+    <t>好帅</t>
+  </si>
+  <si>
+    <t>究极…究极超神！</t>
+  </si>
+  <si>
+    <t>芜湖！前排前排</t>
+  </si>
+  <si>
+    <t>来了来了，卡点来了</t>
+  </si>
+  <si>
+    <t>这回来的也挺早的[OK]</t>
+  </si>
+  <si>
+    <t>蘸豆爽</t>
+  </si>
+  <si>
+    <t>谁推荐看的，等更新想死</t>
+  </si>
+  <si>
+    <t>最早的一次[脱单doge][脱单doge][脱单doge]</t>
+  </si>
+  <si>
+    <t>看这个里面的队员总给我有一种在玩EDF的感觉[笑哭]</t>
+  </si>
+  <si>
+    <t>嗨害嗨，我又来了奥</t>
+  </si>
+  <si>
+    <t>来啦！</t>
+  </si>
+  <si>
+    <t>没人夸一下bgm么，末尾9号出场时那个音乐诡异感赞爆</t>
+  </si>
+  <si>
+    <t>蛮好看的 评分这么低</t>
+  </si>
+  <si>
+    <t>我应该攒一集再看的[辣眼睛]</t>
+  </si>
+  <si>
+    <t>洗完澡准时追番[星星眼][星星眼][星星眼]</t>
+  </si>
+  <si>
+    <t>蹲到了欧耶[星星眼][星星眼][星星眼]</t>
+  </si>
+  <si>
+    <t>[妙啊]</t>
+  </si>
+  <si>
+    <t>想要最好观影体验的请等更新完后一口气看完，虽然我等不及就是了[妙啊]</t>
+  </si>
+  <si>
+    <t>来力[星星眼]</t>
+  </si>
+  <si>
+    <t>来咯[星星眼]</t>
+  </si>
+  <si>
+    <t>开始！</t>
+  </si>
+  <si>
+    <t>啊啊啊啊啊我刚刚还在盖亚就更新了啊啊啊</t>
+  </si>
+  <si>
+    <t>好耶!</t>
+  </si>
+  <si>
+    <t>bin！</t>
+  </si>
+  <si>
+    <t>哈哈哈哈来咯[妙啊]</t>
+  </si>
+  <si>
+    <t>这集对应12-14话的内容，下一集是15话的内容吧</t>
+  </si>
+  <si>
+    <t>现在确实无聊，9号第一次入侵3部队之后就有意思了</t>
+  </si>
+  <si>
+    <t>！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！！</t>
+  </si>
+  <si>
+    <t>超热乎</t>
+  </si>
+  <si>
+    <t>好好好</t>
+  </si>
+  <si>
+    <t>蹲点成功[星星眼]</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>哇哇哇</t>
-  </si>
-  <si>
-    <t>干饭干饭[呲牙]</t>
+    <t>搞笑也不搞笑，反而觉得有点搞笑。</t>
+  </si>
+  <si>
+    <t>霍，更新这么快的，两三天一更吗？</t>
+  </si>
+  <si>
+    <t>卡夫卡：我为逝者哀哭</t>
+  </si>
+  <si>
+    <t>你的推荐语真的是与时俱进，每次看到我都想笑[微笑]</t>
+  </si>
+  <si>
+    <t>这怪兽咋有点像致敬《戴拿奥特曼》蘑菇怪兽那集呢[打call]</t>
+  </si>
+  <si>
+    <t>正式队员就是再惊讶新人战力，这么久前线战斗的经验和解放力提升都喂狗了是吧？</t>
+  </si>
+  <si>
+    <t>可能要烂番了</t>
+  </si>
+  <si>
+    <t>好拖一番…这集就这？</t>
+  </si>
+  <si>
+    <t>啊这 大场面也不行啊 制作这么精良结果打戏就这</t>
+  </si>
+  <si>
+    <t>突然发觉这番也不怎么样。太套路了。</t>
+  </si>
+  <si>
+    <t>[doge][doge][doge]</t>
+  </si>
+  <si>
+    <t>这难道不是赛尔号的蘑菇怪嘛[doge]</t>
+  </si>
+  <si>
+    <t>这集好e心[江壹纯·白情表情包_哭哭]</t>
+  </si>
+  <si>
+    <t>各位骂骂咧咧的看到第六话也是不容易</t>
+  </si>
+  <si>
+    <t>日漫还是老样子 太磨叽了</t>
+  </si>
+  <si>
+    <t>为什么老是摘面罩啊[捂脸]没打完呢，老是说话的时候摘下来</t>
+  </si>
+  <si>
+    <t>密恐患者这集真的很难受[大哭]</t>
+  </si>
+  <si>
+    <t>真的是服了，一话要分那么多</t>
+  </si>
+  <si>
+    <t>这打戏也太无聊了吧  就突突突？ [呆]</t>
+  </si>
+  <si>
+    <t>剧情无聊透顶</t>
+  </si>
+  <si>
+    <t>烂活整太多玩尬的是吧</t>
   </si>
 </sst>
 </file>
@@ -573,7 +1563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,7 +1582,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -600,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -608,7 +1598,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -616,7 +1606,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -624,7 +1614,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -632,7 +1622,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -640,7 +1630,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -648,7 +1638,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -656,7 +1646,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -664,7 +1654,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -672,7 +1662,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -680,7 +1670,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -688,7 +1678,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -696,7 +1686,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -704,7 +1694,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -712,7 +1702,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -720,7 +1710,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -728,7 +1718,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -736,100 +1726,100 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -837,234 +1827,234 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1072,7 +2062,7 @@
         <v>42</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1080,7 +2070,7 @@
         <v>43</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1088,7 +2078,7 @@
         <v>44</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1096,7 +2086,7 @@
         <v>45</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1104,7 +2094,7 @@
         <v>46</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1112,7 +2102,7 @@
         <v>47</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1120,7 +2110,7 @@
         <v>48</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1128,7 +2118,7 @@
         <v>49</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1136,7 +2126,7 @@
         <v>50</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1144,7 +2134,7 @@
         <v>51</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1152,7 +2142,7 @@
         <v>52</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1160,103 +2150,3391 @@
         <v>53</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
         <v>65</v>
       </c>
-      <c r="B85">
-        <v>1</v>
+      <c r="B87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>66</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>68</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>69</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>70</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>71</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>72</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>73</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>74</v>
+      </c>
+      <c r="B96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>75</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>78</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>80</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>76</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>82</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>84</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>85</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>50</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>87</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>88</v>
+      </c>
+      <c r="B112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>89</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>90</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>91</v>
+      </c>
+      <c r="B115">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>92</v>
+      </c>
+      <c r="B116">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>94</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>95</v>
+      </c>
+      <c r="B119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>96</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>97</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>98</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>99</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>100</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>101</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>102</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>103</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>104</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>105</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>106</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>107</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>108</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>109</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>110</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>111</v>
+      </c>
+      <c r="B135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>112</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>113</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>114</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>115</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>116</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>117</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>118</v>
+      </c>
+      <c r="B142">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>119</v>
+      </c>
+      <c r="B143">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>120</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>121</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>122</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>123</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>124</v>
+      </c>
+      <c r="B148">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>125</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>126</v>
+      </c>
+      <c r="B150">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>127</v>
+      </c>
+      <c r="B151">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>128</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>129</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>130</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>68</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>54</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>54</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>50</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>131</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>129</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>54</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>132</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>50</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>50</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>54</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>54</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>133</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>54</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>54</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>50</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>134</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>54</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>54</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>50</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>135</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>50</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>50</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>50</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>136</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>50</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>50</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>50</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>50</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>50</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>50</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>54</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>137</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>50</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>50</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>138</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>54</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>50</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>139</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>54</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>50</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>50</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>140</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>141</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>142</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>143</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>144</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>145</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>145</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>146</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>147</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>50</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>50</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>148</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>65</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>149</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>145</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>50</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>108</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>150</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>151</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>50</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>152</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>153</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>154</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>155</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>156</v>
+      </c>
+      <c r="B221">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>157</v>
+      </c>
+      <c r="B222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>153</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>158</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>76</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>159</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>160</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>161</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>162</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>140</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>163</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>164</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>165</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>166</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>76</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>167</v>
+      </c>
+      <c r="B236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>168</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>169</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>170</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>65</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>171</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>172</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>50</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>173</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>174</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>175</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>176</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>50</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>177</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>178</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>65</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>179</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>180</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>181</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>76</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>76</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>182</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>183</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>184</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>185</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>139</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>50</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>186</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>187</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>188</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>108</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>189</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>190</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>191</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>164</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>192</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>193</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>194</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>195</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>196</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>197</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>198</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>199</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>200</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>76</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>201</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>202</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>203</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>204</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>205</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>206</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>207</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>208</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>209</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>210</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>211</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>212</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>213</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>214</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>215</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>216</v>
+      </c>
+      <c r="B296">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>217</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>218</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>219</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>220</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>221</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>222</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>223</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>224</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>220</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>225</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>145</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>226</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>227</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>226</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>228</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>229</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>230</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>231</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>145</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>232</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>233</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>234</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>235</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>50</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>236</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>237</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>238</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>76</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>239</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>240</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>241</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>242</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>243</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>244</v>
+      </c>
+      <c r="B330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>245</v>
+      </c>
+      <c r="B331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>246</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>247</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>145</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>248</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>249</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>250</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>251</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>252</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>76</v>
+      </c>
+      <c r="B340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>253</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>254</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>76</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>255</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>256</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>257</v>
+      </c>
+      <c r="B346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>258</v>
+      </c>
+      <c r="B347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>259</v>
+      </c>
+      <c r="B348">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>260</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>261</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>262</v>
+      </c>
+      <c r="B351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>248</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>263</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>264</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>265</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>266</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>267</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>146</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>268</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>165</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>109</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>269</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>270</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>268</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>271</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>272</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>273</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>274</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>275</v>
+      </c>
+      <c r="B369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>276</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>277</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>278</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>279</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>280</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>281</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>221</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>282</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>283</v>
+      </c>
+      <c r="B378">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>284</v>
+      </c>
+      <c r="B379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>285</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>286</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>42</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>287</v>
+      </c>
+      <c r="B383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>288</v>
+      </c>
+      <c r="B384">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>289</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>290</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>291</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>292</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
+        <v>293</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>294</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>295</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>275</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>296</v>
+      </c>
+      <c r="B393">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>168</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>297</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>298</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
+        <v>266</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
+        <v>299</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
+        <v>300</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
+        <v>301</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
+        <v>302</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>303</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>304</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
+        <v>305</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
+        <v>306</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
+        <v>307</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
+        <v>308</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
+        <v>309</v>
+      </c>
+      <c r="B408">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
+        <v>310</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
+        <v>311</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" t="s">
+        <v>312</v>
+      </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
+        <v>313</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" t="s">
+        <v>314</v>
+      </c>
+      <c r="B413">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
+        <v>315</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" t="s">
+        <v>316</v>
+      </c>
+      <c r="B415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" t="s">
+        <v>317</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
+        <v>318</v>
+      </c>
+      <c r="B417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
+        <v>39</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
+        <v>319</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" t="s">
+        <v>320</v>
+      </c>
+      <c r="B420">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" t="s">
+        <v>321</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
+        <v>322</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
+        <v>323</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
+        <v>114</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" t="s">
+        <v>324</v>
+      </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" t="s">
+        <v>325</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" t="s">
+        <v>326</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" t="s">
+        <v>327</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" t="s">
+        <v>328</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" t="s">
+        <v>329</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" t="s">
+        <v>330</v>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" t="s">
+        <v>325</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" t="s">
+        <v>331</v>
+      </c>
+      <c r="B433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" t="s">
+        <v>332</v>
+      </c>
+      <c r="B434">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" t="s">
+        <v>333</v>
+      </c>
+      <c r="B435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" t="s">
+        <v>334</v>
+      </c>
+      <c r="B436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" t="s">
+        <v>335</v>
+      </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" t="s">
+        <v>336</v>
+      </c>
+      <c r="B438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" t="s">
+        <v>337</v>
+      </c>
+      <c r="B439">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" t="s">
+        <v>325</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" t="s">
+        <v>338</v>
+      </c>
+      <c r="B441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" t="s">
+        <v>339</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" t="s">
+        <v>340</v>
+      </c>
+      <c r="B443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" t="s">
+        <v>341</v>
+      </c>
+      <c r="B444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" t="s">
+        <v>342</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" t="s">
+        <v>343</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" t="s">
+        <v>344</v>
+      </c>
+      <c r="B447">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" t="s">
+        <v>345</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" t="s">
+        <v>346</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" t="s">
+        <v>347</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" t="s">
+        <v>268</v>
+      </c>
+      <c r="B451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" t="s">
+        <v>348</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" t="s">
+        <v>349</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" t="s">
+        <v>350</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" t="s">
+        <v>76</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" t="s">
+        <v>351</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" t="s">
+        <v>352</v>
+      </c>
+      <c r="B457">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" t="s">
+        <v>353</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" t="s">
+        <v>354</v>
+      </c>
+      <c r="B459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" t="s">
+        <v>355</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" t="s">
+        <v>356</v>
+      </c>
+      <c r="B461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" t="s">
+        <v>266</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" t="s">
+        <v>348</v>
+      </c>
+      <c r="B463">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" t="s">
+        <v>129</v>
+      </c>
+      <c r="B464">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" t="s">
+        <v>357</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" t="s">
+        <v>129</v>
+      </c>
+      <c r="B466">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" t="s">
+        <v>358</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" t="s">
+        <v>359</v>
+      </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" t="s">
+        <v>360</v>
+      </c>
+      <c r="B469">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" t="s">
+        <v>361</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" t="s">
+        <v>129</v>
+      </c>
+      <c r="B471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" t="s">
+        <v>129</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" t="s">
+        <v>362</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" t="s">
+        <v>129</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" t="s">
+        <v>129</v>
+      </c>
+      <c r="B475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" t="s">
+        <v>363</v>
+      </c>
+      <c r="B476">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" t="s">
+        <v>364</v>
+      </c>
+      <c r="B477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" t="s">
+        <v>365</v>
+      </c>
+      <c r="B478">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" t="s">
+        <v>366</v>
+      </c>
+      <c r="B479">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" t="s">
+        <v>367</v>
+      </c>
+      <c r="B480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" t="s">
+        <v>368</v>
+      </c>
+      <c r="B481">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" t="s">
+        <v>369</v>
+      </c>
+      <c r="B482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" t="s">
+        <v>370</v>
+      </c>
+      <c r="B483">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" t="s">
+        <v>371</v>
+      </c>
+      <c r="B484">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" t="s">
+        <v>372</v>
+      </c>
+      <c r="B485">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" t="s">
+        <v>373</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" t="s">
+        <v>374</v>
+      </c>
+      <c r="B487">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" t="s">
+        <v>375</v>
+      </c>
+      <c r="B488">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" t="s">
+        <v>376</v>
+      </c>
+      <c r="B489">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" t="s">
+        <v>377</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" t="s">
+        <v>378</v>
+      </c>
+      <c r="B491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" t="s">
+        <v>379</v>
+      </c>
+      <c r="B492">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" t="s">
+        <v>380</v>
+      </c>
+      <c r="B493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" t="s">
+        <v>381</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" t="s">
+        <v>382</v>
+      </c>
+      <c r="B495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" t="s">
+        <v>383</v>
+      </c>
+      <c r="B496">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/comment.xlsx
+++ b/comment.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="390">
   <si>
     <t>comment</t>
   </si>
   <si>
     <t>like</t>
+  </si>
+  <si>
+    <t>啊？这是人啊[微笑]</t>
   </si>
   <si>
     <t>同样都是男主一开始吃了某个东西，同样是最开始登场的就是最终boss,现在漫画最新一话还在打，你说是吧？咒术回战</t>
@@ -29,34 +32,29 @@
 有人吐槽怪兽弱点是由男主提供，而非分析人员，没错，在理，完全可以给分析人员，分配一支采集样本的战斗小队，以提高分析效率，看起来会更合理——但是这是“爽文”。</t>
   </si>
   <si>
-    <t>啊？这是人啊[微笑]</t>
-  </si>
-  <si>
     <t>不是这是啥</t>
   </si>
   <si>
+    <t>看这集里的怪兽，想起了戴拿里的【菌丝怪兽 弗加斯】
+异常进化的菌丝体诞生的怪兽，本体是巨大的菌丝怪兽。可以将一部分变成人类尺寸的怪人体与巨大的怪兽体。但由于本体是巨大菌丝，所以只要本体不灭，就能不断衍生出其它个体。</t>
+  </si>
+  <si>
     <t>六集看下来，感觉男主变怪兽之后存在感很弱，成长节奏也超级慢。。。正经的场合或严肃的氛围里或热血的场景中永远只有男主在出糗，我都不知道画那么多男主出糗的场景到底想表达什么，这就让我认为男主都三十好几的人了还这么幼稚，从选拔队员那集开始，我就一直在等男主高光，结果集集男主“高能”都是出糗，我都快想不起来男主认真执着坚定不移时候的样子了</t>
-  </si>
-  <si>
-    <t>咱们都是特科队</t>
-  </si>
-  <si>
-    <t>感觉画风挺清新的 而且剧情也还行 为撒是这个评分[思考]</t>
   </si>
   <si>
     <t>男主真的没有那种33岁成熟男性的可靠感觉。
 就一披着大叔皮的16中二小弟。不如承太郎一根毛，</t>
+  </si>
+  <si>
+    <t>咱们都是特科队</t>
+  </si>
+  <si>
+    <t>感觉画风挺清新的 而且剧情也还行 为撒是这个评分[思考]</t>
   </si>
   <si>
     <t>《怪兽8号》股市
 青梅竹马，无敌队长女一号
 金发双马尾傲娇，队员女二号</t>
-  </si>
-  <si>
-    <t>《关于我在奶茶店打工偷偷看8号这件事》[脱单doge]</t>
-  </si>
-  <si>
-    <t>好像女主角啊莱诺…</t>
   </si>
   <si>
     <t>可能稍微有点剧透，在意的请跳过。
@@ -87,118 +85,126 @@
 如果你就是喜欢一对一无脑对打（不过脑细推），其实它还挺爽的（当然，别看连载，直接看单行本！连载一个月十几页，谁都要骂街！）</t>
   </si>
   <si>
+    <t>《关于我在奶茶店打工偷偷看8号这件事》[脱单doge]</t>
+  </si>
+  <si>
+    <t>07:45 我CF动了 我不玩了</t>
+  </si>
+  <si>
+    <t>男主也有天赋的[脱单doge]</t>
+  </si>
+  <si>
     <t>是走路菇，能吃（串台了[2233娘_大笑]）</t>
   </si>
   <si>
-    <t>07:45 我CF动了 我不玩了</t>
-  </si>
-  <si>
-    <t>男主也有天赋的[脱单doge]</t>
+    <t>必须第一</t>
+  </si>
+  <si>
+    <t>说真的这个动画改编已经很优秀了啊
+真的不知道要什么自行车</t>
+  </si>
+  <si>
+    <t>这节奏也太慢了，太黏牙了。</t>
+  </si>
+  <si>
+    <t>算吗？</t>
+  </si>
+  <si>
+    <t>左下角那两个我想笑[doge]</t>
+  </si>
+  <si>
+    <t>来了，怪兽8号，这集对应12话的标题，黎明时分的相模讨伐战</t>
+  </si>
+  <si>
+    <t>第一[doge][doge][doge]</t>
+  </si>
+  <si>
+    <t>哇，这弹幕，这才几个小时啊</t>
+  </si>
+  <si>
+    <t>[吃瓜]没有什么比刚洗完澡吹着空调躺穿上关上灯戴上耳机慢慢看更加惬意了</t>
+  </si>
+  <si>
+    <t>卡点！</t>
+  </si>
+  <si>
+    <t>再不更新我都要被钓成翘嘴了[委屈]</t>
+  </si>
+  <si>
+    <t>好别扭啊</t>
+  </si>
+  <si>
+    <t>必然第一啊</t>
+  </si>
+  <si>
+    <t>盖亚！！！！！！！！</t>
+  </si>
+  <si>
+    <t>剧情有的地方确实有一点点拖拉，但是分也不至于这么低把</t>
+  </si>
+  <si>
+    <t>假如说寄宿怪兽整一个自己人类身体能力成长上限100%，有一个战力解放1%-100%的明线进度，然后碰到大事了再变怪兽升级战斗，怪兽设定加个变身多了就越不容易变回来，所以能不用就不用，这样作为人类去努力成长就合情合理，剧情和团队也更好展开
+那么按前六集这样做就会好很多，而不是像这样没有明线进度，光是靠着变身这一口看点总不能呆着那么长一段</t>
+  </si>
+  <si>
+    <t>好像女主角啊莱诺…</t>
+  </si>
+  <si>
+    <t>实在不理解动漫竟然比漫画快的番，两个都让我煎熬</t>
+  </si>
+  <si>
+    <t>更适合做成好莱坞爆米花电影，或者网飞改编日剧的感觉，出个3部电影，然后票房大卖，出一大堆外传，衍生剧什么的</t>
+  </si>
+  <si>
+    <t>不是哥们，你们一般来说不是所有队员都应该对怪兽构造熟悉吗？坐学就叫你们战术跟打枪了？搞得男主动手前队里没个人去收集怪兽情报的是吧？</t>
+  </si>
+  <si>
+    <t>对怪兽特化三星极制服</t>
+  </si>
+  <si>
+    <t>片尾曲大家听了吗，好好听啊，翻译的真好[大哭]</t>
+  </si>
+  <si>
+    <t>[doge][爱心][脱单doge]</t>
+  </si>
+  <si>
+    <t>剧本统筹。。。是大河内？？？[吃瓜]</t>
+  </si>
+  <si>
+    <t>男主动不动就搞笑这个桥段是不是太密了</t>
+  </si>
+  <si>
+    <t>分还是高了</t>
   </si>
   <si>
     <t>动画过半还没进入正题的感觉，因为男主没变身时完全没有怪兽力量，变身后又强过头，所以他自己作为普通队员的“励志”成长说实在找不到意义，怎么说呢，你说你想做热血你偏偏整个滑稽大叔没有以平凡身躯努力进步的空间，又想和8号做反差帅，不能既要又要，后面就不好做了，这种寄宿boss类型的，都有个双线成长，也是为了后面故事能够合理展开且聚焦在主角身上，而卡夫卡已经没救了，不借助怪兽之力战斗力看不到可能性何必还拖在这个阶段
 如果后面变得能影响到本体了，那前面的努力也是无效的篇幅</t>
   </si>
   <si>
-    <t>说真的这个动画改编已经很优秀了啊
-真的不知道要什么自行车</t>
-  </si>
-  <si>
-    <t>这节奏也太慢了，太黏牙了。</t>
-  </si>
-  <si>
-    <t>必须第一</t>
-  </si>
-  <si>
-    <t>左下角那两个我想笑[doge]</t>
-  </si>
-  <si>
-    <t>假如说寄宿怪兽整一个自己人类身体能力成长上限100%，有一个战力解放1%-100%的明线进度，然后碰到大事了再变怪兽升级战斗，怪兽设定加个变身多了就越不容易变回来，所以能不用就不用，这样作为人类去努力成长就合情合理，剧情和团队也更好展开
-那么按前六集这样做就会好很多，而不是像这样没有明线进度，光是靠着变身这一口看点总不能呆着那么长一段</t>
-  </si>
-  <si>
-    <t>剧情有的地方确实有一点点拖拉，但是分也不至于这么低把</t>
-  </si>
-  <si>
-    <t>算吗？</t>
-  </si>
-  <si>
-    <t>哇，这弹幕，这才几个小时啊</t>
-  </si>
-  <si>
-    <t>第一[doge][doge][doge]</t>
-  </si>
-  <si>
-    <t>来了，怪兽8号，这集对应12话的标题，黎明时分的相模讨伐战</t>
-  </si>
-  <si>
-    <t>[吃瓜]没有什么比刚洗完澡吹着空调躺穿上关上灯戴上耳机慢慢看更加惬意了</t>
-  </si>
-  <si>
-    <t>卡点！</t>
-  </si>
-  <si>
-    <t>盖亚！！！！！！！！</t>
-  </si>
-  <si>
-    <t>再不更新我都要被钓成翘嘴了[委屈]</t>
+    <t>不</t>
+  </si>
+  <si>
+    <t>(〜￣▽￣)〜</t>
+  </si>
+  <si>
+    <t>阎王都是笑着站在弹幕和评论区拿着生死簿[脱单doge]</t>
+  </si>
+  <si>
+    <t>都1点半了，这个1w+认真的？</t>
+  </si>
+  <si>
+    <t>哇</t>
+  </si>
+  <si>
+    <t>第一</t>
+  </si>
+  <si>
+    <t>哈哈</t>
   </si>
   <si>
     <t>怪兽8号男主。一阶一阶往上升级。就当看小说了。小说里面不就是一阶斗志气，二阶斗志气 到后来的剑宗，剑圣 斗皇 一步一步成为伟大的强者。</t>
   </si>
   <si>
-    <t>好别扭啊</t>
-  </si>
-  <si>
-    <t>必然第一啊</t>
-  </si>
-  <si>
-    <t>剧本统筹。。。是大河内？？？[吃瓜]</t>
-  </si>
-  <si>
-    <t>一开始副队长说过：“一般人都会有至少1%的怪兽装备适应度，这家伙不会是百分之一都没有吧？”
-依照这句话来想，“怪兽装备适应度”会不会是怪兽基因污染程度？毕竟怪兽都是生物类型，是某种污染导致的异变也不奇怪。依照这个方向走，当怪兽8号对着男主说“找到了”的意思就是“终于找到没有被污染的人类（共生体）”，之后就是男主逐渐适应怪兽装备，也意味着他慢慢不再是人类。</t>
-  </si>
-  <si>
-    <t>[doge][爱心][脱单doge]</t>
-  </si>
-  <si>
-    <t>更适合做成好莱坞爆米花电影，或者网飞改编日剧的感觉，出个3部电影，然后票房大卖，出一大堆外传，衍生剧什么的</t>
-  </si>
-  <si>
-    <t>实在不理解动漫竟然比漫画快的番，两个都让我煎熬</t>
-  </si>
-  <si>
-    <t>其实看漫画的时候就有疑问，专业军队对怪兽的解析能力难道还没有后勤处理了解怪兽吗，男主这个对怪兽的了解真作者的欠考虑，没有太多铺垫</t>
-  </si>
-  <si>
-    <t>分还是高了</t>
-  </si>
-  <si>
-    <t>片尾曲大家听了吗，好好听啊，翻译的真好[大哭]</t>
-  </si>
-  <si>
-    <t>男主动不动就搞笑这个桥段是不是太密了</t>
-  </si>
-  <si>
-    <t>不</t>
-  </si>
-  <si>
-    <t>都1点半了，这个1w+认真的？</t>
-  </si>
-  <si>
-    <t>(〜￣▽￣)〜</t>
-  </si>
-  <si>
-    <t>哇</t>
-  </si>
-  <si>
-    <t>阎王都是笑着站在弹幕和评论区拿着生死簿[脱单doge]</t>
-  </si>
-  <si>
-    <t>哈哈</t>
-  </si>
-  <si>
     <t>来了</t>
   </si>
   <si>
@@ -208,46 +214,37 @@
     <t>1.5万了</t>
   </si>
   <si>
+    <t>九号出来了</t>
+  </si>
+  <si>
+    <t>2.9万了</t>
+  </si>
+  <si>
+    <t>啊啊啊为什么就没了</t>
+  </si>
+  <si>
+    <t>不够看！</t>
+  </si>
+  <si>
+    <t>3.1万了</t>
+  </si>
+  <si>
     <t>启动！</t>
   </si>
   <si>
-    <t>第一</t>
+    <t>真就好想看男主再爽一次啊[罗小黑_加油]</t>
   </si>
   <si>
     <t>不够看啊</t>
   </si>
   <si>
-    <t>不够看！</t>
-  </si>
-  <si>
-    <t>九号出来了</t>
-  </si>
-  <si>
-    <t>3.1万了</t>
-  </si>
-  <si>
-    <t>2.9万了</t>
-  </si>
-  <si>
-    <t>啊啊啊为什么就没了</t>
-  </si>
-  <si>
-    <t>真就好想看男主再爽一次啊[罗小黑_加油]</t>
+    <t>[doge]</t>
   </si>
   <si>
     <t>感觉一般</t>
   </si>
   <si>
     <t>[吃瓜][吃瓜]晚上好</t>
-  </si>
-  <si>
-    <t>这一集还可以，把让居民避难，然后组织合作，还有新人表现之类的都做出来了，并且控制了卡夫卡的气氛破坏，就只在前面晕车，还有以为自己很强那一块儿，后面就没有了，要是再出现的话，就太破坏气氛了</t>
-  </si>
-  <si>
-    <t>[doge]</t>
-  </si>
-  <si>
-    <t>过家家的游戏结束了</t>
   </si>
   <si>
     <t>阎王：怎么生死簿上有一堆名字闪来闪去？？
@@ -259,97 +256,125 @@
 垂死病中，阎王夸我们身体好！</t>
   </si>
   <si>
+    <t>过家家的游戏结束了</t>
+  </si>
+  <si>
     <t>善</t>
   </si>
   <si>
+    <t>这一集还可以，把让居民避难，然后组织合作，还有新人表现之类的都做出来了，并且控制了卡夫卡的气氛破坏，就只在前面晕车，还有以为自己很强那一块儿，后面就没有了，要是再出现的话，就太破坏气氛了</t>
+  </si>
+  <si>
     <t>yes !</t>
   </si>
   <si>
     <t>9号：想我的事？[脱单doge]</t>
   </si>
   <si>
+    <t>没看够啊[辣眼睛]</t>
+  </si>
+  <si>
     <t>2.2万+人正在观看</t>
   </si>
   <si>
     <t>[脱单doge][脱单doge]</t>
   </si>
   <si>
-    <t>没看够啊[辣眼睛]</t>
+    <t>[歪嘴][歪嘴][歪嘴][歪嘴]</t>
+  </si>
+  <si>
+    <t>不理解干嘛要说俩女孩都该配主角啊？还选妃，又不是后宫番。。。某些人别yy了。。而且也没有他们说的这么烂，本人看完漫画其实还好，个人觉得还是蛮符合我的胃口，只是前期剧情太快了点，动漫还是值得大家看一下的。评分这么低我都怀疑好多跟风的，，</t>
+  </si>
+  <si>
+    <t>其实看漫画的时候就有疑问，专业军队对怪兽的解析能力难道还没有后勤处理了解怪兽吗，男主这个对怪兽的了解真作者的欠考虑，没有太多铺垫</t>
+  </si>
+  <si>
+    <t>[脱单doge]</t>
+  </si>
+  <si>
+    <t>大干一场</t>
+  </si>
+  <si>
+    <t>[洛天依][洛天依][洛天依][洛天依]</t>
+  </si>
+  <si>
+    <t>一开始副队长说过：“一般人都会有至少1%的怪兽装备适应度，这家伙不会是百分之一都没有吧？”
+依照这句话来想，“怪兽装备适应度”会不会是怪兽基因污染程度？毕竟怪兽都是生物类型，是某种污染导致的异变也不奇怪。依照这个方向走，当怪兽8号对着男主说“找到了”的意思就是“终于找到没有被污染的人类（共生体）”，之后就是男主逐渐适应怪兽装备，也意味着他慢慢不再是人类。</t>
+  </si>
+  <si>
+    <t>友情提示：这集对密恐玩家不太友好[妙啊]</t>
+  </si>
+  <si>
+    <t>下一集应该就是男主变身揍9号了</t>
+  </si>
+  <si>
+    <t>我才是第一</t>
+  </si>
+  <si>
+    <t>太六了直接100多</t>
   </si>
   <si>
     <t>中年版绿谷出久是吧[灵魂出窍]</t>
   </si>
   <si>
-    <t>[歪嘴][歪嘴][歪嘴][歪嘴]</t>
-  </si>
-  <si>
-    <t>[脱单doge]</t>
-  </si>
-  <si>
-    <t>大干一场</t>
-  </si>
-  <si>
-    <t>[洛天依][洛天依][洛天依][洛天依]</t>
+    <t>好可爱好可爱好好磕啊啊啊啊～[打call][打call]</t>
   </si>
   <si>
     <t>一集也太快了吧[微笑]</t>
   </si>
   <si>
+    <t>[香奈美·追寻那道光 应援装扮_mvp][香奈美·追寻那道光 应援装扮_mvp]</t>
+  </si>
+  <si>
+    <t>一个防卫队，队员不应该对怪兽的结构都有了解才对吗，半路入队的不算，至少像奇可露这种上过专门针对怪兽防卫学校的，基础课程应该会有怪兽解剖之类的吧，况且防卫队还有技术人员，但是目前看来除了喊出怪兽等级和队员解放战力以外并没有什么实际价值，比起技术人员更像解说[笑哭]，作者太想强调卡夫卡的作用了，导致整个防卫队的设定有点儿崩</t>
+  </si>
+  <si>
+    <t>也还行，好过史莱姆3，每集都在重复开会，重复内容。</t>
+  </si>
+  <si>
+    <t>一路看下来觉得回忆画面太多了吧[灵魂出窍]</t>
+  </si>
+  <si>
     <t>动画已经渐入佳境了</t>
   </si>
   <si>
-    <t>友情提示：这集对密恐玩家不太友好[妙啊]</t>
-  </si>
-  <si>
-    <t>下一集应该就是男主变身揍9号了</t>
-  </si>
-  <si>
-    <t>我才是第一</t>
-  </si>
-  <si>
-    <t>太六了直接100多</t>
-  </si>
-  <si>
-    <t>好可爱好可爱好好磕啊啊啊啊～[打call][打call]</t>
-  </si>
-  <si>
-    <t>也还行，好过史莱姆3，每集都在重复开会，重复内容。</t>
-  </si>
-  <si>
-    <t>[香奈美·追寻那道光 应援装扮_mvp][香奈美·追寻那道光 应援装扮_mvp]</t>
+    <t>剧情很平淡，全靠画风撑</t>
+  </si>
+  <si>
+    <t>[打call][打call][打call]</t>
+  </si>
+  <si>
+    <t>巢蟲領主表示很贊</t>
+  </si>
+  <si>
+    <t>来了来了 掐着点儿来的[doge]</t>
+  </si>
+  <si>
+    <t>这季boss是打谁？九号？？</t>
   </si>
   <si>
     <t>9号好像卡列卡列星人，看漫画的时候都没觉得，动画给他配的那个音效就特别像</t>
   </si>
   <si>
-    <t>巢蟲領主表示很贊</t>
-  </si>
-  <si>
-    <t>一路看下来觉得回忆画面太多了吧[灵魂出窍]</t>
-  </si>
-  <si>
-    <t>一个防卫队，队员不应该对怪兽的结构都有了解才对吗，半路入队的不算，至少像奇可露这种上过专门针对怪兽防卫学校的，基础课程应该会有怪兽解剖之类的吧，况且防卫队还有技术人员，但是目前看来除了喊出怪兽等级和队员解放战力以外并没有什么实际价值，比起技术人员更像解说[笑哭]，作者太想强调卡夫卡的作用了，导致整个防卫队的设定有点儿崩</t>
-  </si>
-  <si>
-    <t>这季boss是打谁？九号？？</t>
-  </si>
-  <si>
-    <t>剧情很平淡，全靠画风撑</t>
-  </si>
-  <si>
-    <t>[打call][打call][打call]</t>
+    <t>我TM来啦[怪兽8号_开心][怪兽8号_开心][怪兽8号_开心]</t>
   </si>
   <si>
     <t>孩子们，我也是怪兽</t>
   </si>
   <si>
-    <t>来了来了 掐着点儿来的[doge]</t>
-  </si>
-  <si>
     <t>我就知道这最后会停到那个位置[笑哭]别的还可以，就是太拖了吧</t>
   </si>
   <si>
-    <t>我TM来啦[怪兽8号_开心][怪兽8号_开心][怪兽8号_开心]</t>
+    <t>不够看啊～感觉这一季只能看到打四宫她爹</t>
+  </si>
+  <si>
+    <t>蹲点哈哈哈哈[保卫萝卜_哇][保卫萝卜_哇]</t>
+  </si>
+  <si>
+    <t>[脱单doge][脱单doge][脱单doge]</t>
+  </si>
+  <si>
+    <t>第一！！</t>
   </si>
   <si>
     <t>下一集啊，我什么都不会做的</t>
@@ -358,414 +383,402 @@
     <t>平均两集变一次身吗</t>
   </si>
   <si>
-    <t>不够看啊～感觉这一季只能看到打四宫她爹</t>
-  </si>
-  <si>
-    <t>蹲点哈哈哈哈[保卫萝卜_哇][保卫萝卜_哇]</t>
-  </si>
-  <si>
-    <t>[脱单doge][脱单doge][脱单doge]</t>
-  </si>
-  <si>
-    <t>第一！！</t>
+    <t>评分高了</t>
+  </si>
+  <si>
+    <t>我能看到这集真不容易。[滑稽]</t>
+  </si>
+  <si>
+    <t>芜湖！</t>
+  </si>
+  <si>
+    <t>队长太帅了[喜欢][喜欢][喜欢]</t>
+  </si>
+  <si>
+    <t>在在在在在在在在</t>
   </si>
   <si>
     <t>啊 第五节没有说男主是怪兽8号啊 怎么第六开局就说他是怪兽八号</t>
   </si>
   <si>
-    <t>评分高了</t>
-  </si>
-  <si>
-    <t>队长太帅了[喜欢][喜欢][喜欢]</t>
-  </si>
-  <si>
-    <t>芜湖！</t>
-  </si>
-  <si>
     <t>一集根本不够[龙年]</t>
   </si>
   <si>
+    <t>好耶</t>
+  </si>
+  <si>
+    <t>为什么我看到子弹性质炸裂和冻结想到了明日之后里的异变核芯</t>
+  </si>
+  <si>
     <t>是不是往后8号9号10号这些是越来越强的敌人，最终boss是0号</t>
   </si>
   <si>
+    <t>[吃瓜][吃瓜][吃瓜][吃瓜][吃瓜][吃瓜][吃瓜][吃瓜][吃瓜][吃瓜][吃瓜]</t>
+  </si>
+  <si>
+    <t>有怪兽下一集要挨揍了，是谁捏（8号脸）</t>
+  </si>
+  <si>
     <t>这个是同步？</t>
   </si>
   <si>
     <t>很好 每次看完都像没看一样 推动太慢了啊啊啊啊啊啊</t>
   </si>
   <si>
-    <t>在在在在在在在在</t>
-  </si>
-  <si>
-    <t>好耶</t>
-  </si>
-  <si>
-    <t>为什么我看到子弹性质炸裂和冻结想到了明日之后里的异变核芯</t>
-  </si>
-  <si>
-    <t>有怪兽下一集要挨揍了，是谁捏（8号脸）</t>
-  </si>
-  <si>
-    <t>[吃瓜][吃瓜][吃瓜][吃瓜][吃瓜][吃瓜][吃瓜][吃瓜][吃瓜][吃瓜][吃瓜]</t>
+    <t>[星星眼][星星眼][星星眼][星星眼][星星眼][星星眼]</t>
   </si>
   <si>
     <t>怎么感觉画风有点动画版博人传那味</t>
   </si>
   <si>
+    <t>副队祖传的手艺活儿是真的强啊</t>
+  </si>
+  <si>
+    <t>无聊的动员和目标能不能改到打怪兽里面啊。</t>
+  </si>
+  <si>
+    <t>再给我看一集啊，求求了！！！！！[小电视_好怒啊]</t>
+  </si>
+  <si>
     <t>必须到位</t>
   </si>
   <si>
-    <t>[星星眼][星星眼][星星眼][星星眼][星星眼][星星眼]</t>
-  </si>
-  <si>
-    <t>再给我看一集啊，求求了！！！！！[小电视_好怒啊]</t>
-  </si>
-  <si>
-    <t>无聊的动员和目标能不能改到打怪兽里面啊。</t>
+    <t>晚睡的人儿有番看</t>
   </si>
   <si>
     <t>可恶，看完就好孤独[委屈][委屈][委屈]</t>
   </si>
   <si>
-    <t>副队祖传的手艺活儿是真的强啊</t>
-  </si>
-  <si>
     <t>8.7了</t>
   </si>
   <si>
-    <t>晚睡的人儿有番看</t>
+    <t>嗯</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>我来</t>
+  </si>
+  <si>
+    <t>蹲</t>
+  </si>
+  <si>
+    <t>啊哈</t>
+  </si>
+  <si>
+    <t>呦西</t>
   </si>
   <si>
     <t>各位下个星期见[OK]</t>
   </si>
   <si>
-    <t>嗯</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>不是哥们，你们一般来说不是所有队员都应该对怪兽构造熟悉吗？坐学就叫你们战术跟打枪了？搞得男主动手前队里没个人去收集怪兽情报的是吧？</t>
+    <t>鬼灭之刃也开播啦！</t>
+  </si>
+  <si>
+    <t>好</t>
+  </si>
+  <si>
+    <t>来来来</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>哟西</t>
+  </si>
+  <si>
+    <t>来啦来啦</t>
+  </si>
+  <si>
+    <t>来了来了</t>
+  </si>
+  <si>
+    <t>耶耶耶</t>
+  </si>
+  <si>
+    <t>拿下</t>
+  </si>
+  <si>
+    <t>烫死了</t>
+  </si>
+  <si>
+    <t>来了[吃瓜]</t>
+  </si>
+  <si>
+    <t>让我再看一集啊啊啊啊啊</t>
+  </si>
+  <si>
+    <t>[幸运花花_吃瓜]</t>
+  </si>
+  <si>
+    <t>来了[OK]</t>
   </si>
   <si>
     <t>好困但还是想看[阴险]</t>
   </si>
   <si>
-    <t>我来</t>
-  </si>
-  <si>
-    <t>让我再看一集啊啊啊啊啊</t>
-  </si>
-  <si>
-    <t>对怪兽特化三星极制服</t>
-  </si>
-  <si>
-    <t>蹲</t>
-  </si>
-  <si>
-    <t>啊哈</t>
-  </si>
-  <si>
-    <t>呦西</t>
-  </si>
-  <si>
-    <t>来来来</t>
-  </si>
-  <si>
-    <t>好</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>[幸运花花_吃瓜]</t>
-  </si>
-  <si>
-    <t>哟西</t>
-  </si>
-  <si>
-    <t>耶耶耶</t>
-  </si>
-  <si>
-    <t>来啦来啦</t>
-  </si>
-  <si>
-    <t>来了来了</t>
-  </si>
-  <si>
-    <t>拿下</t>
-  </si>
-  <si>
-    <t>烫死了</t>
-  </si>
-  <si>
-    <t>来了[吃瓜]</t>
-  </si>
-  <si>
-    <t>来了[OK]</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>来了[doge]</t>
+  </si>
+  <si>
+    <t>[OK][OK]</t>
+  </si>
+  <si>
+    <t>114514</t>
+  </si>
+  <si>
+    <t>第一第一 沙发</t>
+  </si>
+  <si>
+    <t>我要开始屯了[脱单doge]</t>
+  </si>
+  <si>
+    <t>[辣眼睛]</t>
+  </si>
+  <si>
+    <t>我嘞个雷终于来了</t>
+  </si>
+  <si>
+    <t>芜湖</t>
+  </si>
+  <si>
+    <t>[星星眼][星星眼]</t>
   </si>
   <si>
     <t>凌晨一点还有人</t>
   </si>
   <si>
+    <t>来了[大笑]</t>
+  </si>
+  <si>
     <t>苹果跟安卓不是同步更新的吗</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>来了[doge]</t>
-  </si>
-  <si>
-    <t>[OK][OK]</t>
-  </si>
-  <si>
-    <t>114514</t>
+    <t>，，</t>
+  </si>
+  <si>
+    <t>第二</t>
+  </si>
+  <si>
+    <t>[doge][打call]</t>
+  </si>
+  <si>
+    <t>来了来了[星星眼]</t>
+  </si>
+  <si>
+    <t>市川你别太爱了</t>
+  </si>
+  <si>
+    <t>我应该攒一集再看的[辣眼睛]</t>
+  </si>
+  <si>
+    <t>养养弹幕再看[doge]</t>
+  </si>
+  <si>
+    <t>豪堪</t>
+  </si>
+  <si>
+    <t>来了！！！[打call]</t>
+  </si>
+  <si>
+    <t>芜湖[脱单doge]</t>
+  </si>
+  <si>
+    <t>闹！闹！闹！</t>
+  </si>
+  <si>
+    <t>亚白这脸？</t>
+  </si>
+  <si>
+    <t>迟到了</t>
+  </si>
+  <si>
+    <t>第一个</t>
+  </si>
+  <si>
+    <t>热血民工漫</t>
+  </si>
+  <si>
+    <t>[龙年]</t>
+  </si>
+  <si>
+    <t>更新了家人们！！！！[星星眼]</t>
+  </si>
+  <si>
+    <t>来里</t>
+  </si>
+  <si>
+    <t>到！[脱单doge]</t>
+  </si>
+  <si>
+    <t>来啦[保卫萝卜_哇]</t>
+  </si>
+  <si>
+    <t>这么短吗</t>
+  </si>
+  <si>
+    <t>盖亚——</t>
+  </si>
+  <si>
+    <t>你保护了什么啊！</t>
+  </si>
+  <si>
+    <t>啊啊啊啊</t>
+  </si>
+  <si>
+    <t>3.3万了</t>
+  </si>
+  <si>
+    <t>啊啊啊啊啊啊</t>
   </si>
   <si>
     <t>兄弟们，下个星期看九号</t>
   </si>
   <si>
-    <t>我要开始屯了[脱单doge]</t>
-  </si>
-  <si>
-    <t>热血民工漫</t>
+    <t>[来古-注意]</t>
+  </si>
+  <si>
+    <t>好短 不够看啊啊啊啊</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>好短啊啊啊啊</t>
+  </si>
+  <si>
+    <t>第一！</t>
+  </si>
+  <si>
+    <t>卡夫卡亚白好好好</t>
+  </si>
+  <si>
+    <t>突然间冒出来这么多人[辣眼睛]</t>
+  </si>
+  <si>
+    <t>哈哈哈哈哈哈哈[怪兽8号_开心][怪兽8号_开心][怪兽8号_开心]</t>
+  </si>
+  <si>
+    <t>其实有个很重的槽点，男主明明设定是大叔，结果还是传统少年漫男主的展开。不说跟其他少年漫男主虎杖路飞比，就是同一个作品里的青年队员都比大叔显得成熟，该怎么说呢，有一股热血纯真的味道，要说设定16岁我觉得很好，设定30+岁这副样子就有点反胃了。</t>
+  </si>
+  <si>
+    <t>烂不烂是自己决定的</t>
+  </si>
+  <si>
+    <t>BOSS这么快暴露了？</t>
+  </si>
+  <si>
+    <t>不够看，根本不够看，多更点！</t>
+  </si>
+  <si>
+    <t>蹲点蹲到</t>
+  </si>
+  <si>
+    <t>道反天罡[生病]</t>
+  </si>
+  <si>
+    <t>更新啦！！！！！</t>
+  </si>
+  <si>
+    <t>呜呜呜不够看</t>
+  </si>
+  <si>
+    <t>感觉评分低是有原因的</t>
+  </si>
+  <si>
+    <t>根本不够看</t>
+  </si>
+  <si>
+    <t>怎么感觉有点高开低走的赶脚</t>
+  </si>
+  <si>
+    <t>[doge][doge]</t>
+  </si>
+  <si>
+    <t>科保太帅了[大哭]漫画里更帅！</t>
+  </si>
+  <si>
+    <t>急急急[大哭]</t>
+  </si>
+  <si>
+    <t>我得15块[大哭]</t>
+  </si>
+  <si>
+    <t>睡觉，大家晚安！！！</t>
   </si>
   <si>
     <t>好看[给心心]</t>
   </si>
   <si>
-    <t>第一第一 沙发</t>
-  </si>
-  <si>
-    <t>[来古-注意]</t>
-  </si>
-  <si>
-    <t>[辣眼睛]</t>
-  </si>
-  <si>
-    <t>我嘞个雷终于来了</t>
-  </si>
-  <si>
-    <t>[星星眼][星星眼]</t>
-  </si>
-  <si>
-    <t>芜湖</t>
-  </si>
-  <si>
-    <t>来了[大笑]</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>关键时刻没了，卧槽，还要等七天</t>
+  </si>
+  <si>
+    <t>来咯</t>
+  </si>
+  <si>
+    <t>主角能巨大化吗</t>
+  </si>
+  <si>
+    <t>粉毛和莱诺不会要直面九号吧（</t>
+  </si>
+  <si>
+    <t>[星星眼][星星眼][星星眼]</t>
+  </si>
+  <si>
+    <t>好乱</t>
+  </si>
+  <si>
+    <t>感觉一集的战斗都不够看的样子</t>
+  </si>
+  <si>
+    <t>[打call][打call]</t>
+  </si>
+  <si>
+    <t>来力</t>
+  </si>
+  <si>
+    <t>美女</t>
+  </si>
+  <si>
+    <t>奥利给</t>
+  </si>
+  <si>
+    <t>我靠[脱单doge][脱单doge][脱单doge]</t>
+  </si>
+  <si>
+    <t>晚睡的孩子有番看[OK]</t>
+  </si>
+  <si>
+    <t>完蛋，燃不起来，是我的问题吗？</t>
+  </si>
+  <si>
+    <t>来哩</t>
   </si>
   <si>
     <t>感觉还差一点 就能跟上咒术了 但是实在讲不出来到底是差在哪了[疑惑]</t>
   </si>
   <si>
-    <t>来咯</t>
-  </si>
-  <si>
-    <t>豪堪</t>
-  </si>
-  <si>
-    <t>，，</t>
-  </si>
-  <si>
-    <t>养养弹幕再看[doge]</t>
-  </si>
-  <si>
-    <t>[doge][打call]</t>
-  </si>
-  <si>
-    <t>来了来了[星星眼]</t>
-  </si>
-  <si>
-    <t>第二</t>
-  </si>
-  <si>
-    <t>不理解干嘛要说俩女孩都该配主角啊？还选妃，又不是后宫番。。。某些人别yy了。。而且也没有他们说的这么烂，本人看完漫画其实还好，个人觉得还是蛮符合我的胃口，只是前期剧情太快了点，动漫还是值得大家看一下的。评分这么低我都怀疑好多跟风的，，</t>
-  </si>
-  <si>
-    <t>市川你别太爱了</t>
-  </si>
-  <si>
-    <t>来了！！！[打call]</t>
-  </si>
-  <si>
-    <t>闹！闹！闹！</t>
-  </si>
-  <si>
-    <t>芜湖[脱单doge]</t>
-  </si>
-  <si>
-    <t>科保太帅了[大哭]漫画里更帅！</t>
-  </si>
-  <si>
-    <t>其实有个很重的槽点，男主明明设定是大叔，结果还是传统少年漫男主的展开。不说跟其他少年漫男主虎杖路飞比，就是同一个作品里的青年队员都比大叔显得成熟，该怎么说呢，有一股热血纯真的味道，要说设定16岁我觉得很好，设定30+岁这副样子就有点反胃了。</t>
-  </si>
-  <si>
-    <t>亚白这脸？</t>
-  </si>
-  <si>
-    <t>迟到了</t>
-  </si>
-  <si>
-    <t>更新了家人们！！！！[星星眼]</t>
-  </si>
-  <si>
-    <t>第一个</t>
-  </si>
-  <si>
-    <t>[龙年]</t>
-  </si>
-  <si>
-    <t>来里</t>
-  </si>
-  <si>
-    <t>来啦[保卫萝卜_哇]</t>
-  </si>
-  <si>
-    <t>你保护了什么啊！</t>
-  </si>
-  <si>
-    <t>盖亚——</t>
-  </si>
-  <si>
-    <t>3.3万了</t>
-  </si>
-  <si>
-    <t>到！[脱单doge]</t>
-  </si>
-  <si>
-    <t>啊啊啊啊</t>
-  </si>
-  <si>
-    <t>这么短吗</t>
-  </si>
-  <si>
-    <t>啊啊啊啊啊啊</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>好短 不够看啊啊啊啊</t>
-  </si>
-  <si>
-    <t>好短啊啊啊啊</t>
-  </si>
-  <si>
-    <t>第一！</t>
-  </si>
-  <si>
-    <t>突然间冒出来这么多人[辣眼睛]</t>
-  </si>
-  <si>
-    <t>道反天罡[生病]</t>
-  </si>
-  <si>
-    <t>哈哈哈哈哈哈哈[怪兽8号_开心][怪兽8号_开心][怪兽8号_开心]</t>
-  </si>
-  <si>
-    <t>卡夫卡亚白好好好</t>
-  </si>
-  <si>
-    <t>怎么感觉有点高开低走的赶脚</t>
-  </si>
-  <si>
-    <t>烂不烂是自己决定的</t>
-  </si>
-  <si>
-    <t>BOSS这么快暴露了？</t>
-  </si>
-  <si>
-    <t>不够看，根本不够看，多更点！</t>
-  </si>
-  <si>
-    <t>蹲点蹲到</t>
-  </si>
-  <si>
-    <t>更新啦！！！！！</t>
-  </si>
-  <si>
-    <t>呜呜呜不够看</t>
-  </si>
-  <si>
-    <t>感觉评分低是有原因的</t>
-  </si>
-  <si>
-    <t>我得15块[大哭]</t>
-  </si>
-  <si>
-    <t>根本不够看</t>
-  </si>
-  <si>
-    <t>[doge][doge]</t>
-  </si>
-  <si>
-    <t>急急急[大哭]</t>
-  </si>
-  <si>
-    <t>晚睡的孩子有番看[OK]</t>
-  </si>
-  <si>
-    <t>关键时刻没了，卧槽，还要等七天</t>
-  </si>
-  <si>
-    <t>粉毛和莱诺不会要直面九号吧（</t>
-  </si>
-  <si>
-    <t>睡觉，大家晚安！！！</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>来力</t>
-  </si>
-  <si>
-    <t>主角能巨大化吗</t>
-  </si>
-  <si>
-    <t>好乱</t>
-  </si>
-  <si>
-    <t>感觉一集的战斗都不够看的样子</t>
-  </si>
-  <si>
-    <t>[打call][打call]</t>
-  </si>
-  <si>
-    <t>[星星眼][星星眼][星星眼]</t>
-  </si>
-  <si>
-    <t>我靠[脱单doge][脱单doge][脱单doge]</t>
-  </si>
-  <si>
-    <t>奥利给</t>
-  </si>
-  <si>
-    <t>美女</t>
-  </si>
-  <si>
-    <t>完蛋，燃不起来，是我的问题吗？</t>
+    <t>卡夫卡nb！</t>
   </si>
   <si>
     <t>还没看够就没了[保卫萝卜_哭哭]</t>
   </si>
   <si>
-    <t>来哩</t>
-  </si>
-  <si>
-    <t>卡夫卡nb！</t>
+    <t>休刊8号[Cat2_Boom!]</t>
+  </si>
+  <si>
+    <t>保科的声音真的挺池面的</t>
   </si>
   <si>
     <t>戴着半面罩打过喷嚏，很难受，8号要是吐在里面的话，估计很难处理了</t>
   </si>
   <si>
-    <t>休刊8号[Cat2_Boom!]</t>
-  </si>
-  <si>
-    <t>保科的声音真的挺池面的</t>
-  </si>
-  <si>
     <t>结尾又在吸引读者！！！不够看啊！！</t>
   </si>
   <si>
@@ -775,28 +788,31 @@
     <t>[星星眼][星星眼][星星眼][星星眼][星星眼]</t>
   </si>
   <si>
+    <t>[吃瓜]</t>
+  </si>
+  <si>
     <t>女主下飞机是和cf联动了吗  什么鬼音效</t>
   </si>
   <si>
+    <t>男主高光那段逻辑上说服力有点差，有点出戏...</t>
+  </si>
+  <si>
+    <t>下星期见[脱单doge]</t>
+  </si>
+  <si>
     <t>[墨镜]</t>
   </si>
   <si>
-    <t>[吃瓜]</t>
-  </si>
-  <si>
-    <t>男主高光那段逻辑上说服力有点差，有点出戏...</t>
-  </si>
-  <si>
-    <t>下星期见[脱单doge]</t>
+    <t>来！</t>
+  </si>
+  <si>
+    <t>jj</t>
   </si>
   <si>
     <t>芜湖[doge]</t>
   </si>
   <si>
-    <t>jj</t>
-  </si>
-  <si>
-    <t>来！</t>
+    <t>又是没变身的一集，想你了，老八[委屈]</t>
   </si>
   <si>
     <t>好诶</t>
@@ -805,61 +821,64 @@
     <t>好想看[大哭][大哭][大哭]</t>
   </si>
   <si>
+    <t>真的不过瘾啊[灵魂出窍]</t>
+  </si>
+  <si>
+    <t>趁热咬一口[打call]</t>
+  </si>
+  <si>
     <t>好看，动漫是真的好看。</t>
   </si>
   <si>
+    <t>哦豁！这不是巧了吗[吃瓜]</t>
+  </si>
+  <si>
+    <t>蹲点我是第一人[脱单doge]</t>
+  </si>
+  <si>
+    <t>热乎的吧[doge]</t>
+  </si>
+  <si>
+    <t>一直觉得手套像faiz的手套</t>
+  </si>
+  <si>
     <t>对应漫画多少集</t>
   </si>
   <si>
-    <t>真的不过瘾啊[灵魂出窍]</t>
-  </si>
-  <si>
-    <t>趁热咬一口[打call]</t>
-  </si>
-  <si>
-    <t>哦豁！这不是巧了吗[吃瓜]</t>
-  </si>
-  <si>
-    <t>蹲点我是第一人[脱单doge]</t>
+    <t>刚刚好[星星眼]</t>
+  </si>
+  <si>
+    <t>这个点更新？</t>
   </si>
   <si>
     <t>8号白板数值怪，作者是不是想玩白金那套[微笑]</t>
   </si>
   <si>
-    <t>热乎的吧[doge]</t>
-  </si>
-  <si>
-    <t>一直觉得手套像faiz的手套</t>
-  </si>
-  <si>
-    <t>刚刚好[星星眼]</t>
+    <t>怪兽8号</t>
+  </si>
+  <si>
+    <t>@张张张板栗 更新了快来[给心心]</t>
+  </si>
+  <si>
+    <t>这些个怪物的设定，很像死亡黑标啊，BETA生物也是这种既视感，虽然死亡黑标的设定也是抄星际的就是了</t>
   </si>
   <si>
     <t>下集开打[喜欢][喜欢][喜欢]</t>
   </si>
   <si>
-    <t>这个点更新？</t>
-  </si>
-  <si>
-    <t>这些个怪物的设定，很像死亡黑标啊，BETA生物也是这种既视感，虽然死亡黑标的设定也是抄星际的就是了</t>
-  </si>
-  <si>
-    <t>怪兽8号</t>
+    <t>准时</t>
+  </si>
+  <si>
+    <t>[OK]</t>
+  </si>
+  <si>
+    <t>来啦</t>
   </si>
   <si>
     <t>我想问问第六话是更到漫画哪里</t>
   </si>
   <si>
-    <t>@张张张板栗 更新了快来[给心心]</t>
-  </si>
-  <si>
-    <t>准时</t>
-  </si>
-  <si>
-    <t>[OK]</t>
-  </si>
-  <si>
-    <t>来啦</t>
+    <t>我还想说第一呢，你们这群小机灵鬼</t>
   </si>
   <si>
     <t>来了开咯</t>
@@ -868,9 +887,6 @@
     <t>真“准时”[doge]</t>
   </si>
   <si>
-    <t>我还想说第一呢，你们这群小机灵鬼</t>
-  </si>
-  <si>
     <t>二点八万太猛了</t>
   </si>
   <si>
@@ -880,31 +896,31 @@
     <t>熬夜的孩子有番看</t>
   </si>
   <si>
+    <t>吃口热乎的</t>
+  </si>
+  <si>
+    <t>盖亚！！！～</t>
+  </si>
+  <si>
+    <t>男主以一定要那么搞嘛，有的小尬[辣眼睛]</t>
+  </si>
+  <si>
     <t>蹲点成功</t>
   </si>
   <si>
-    <t>盖亚！！！～</t>
-  </si>
-  <si>
-    <t>吃口热乎的</t>
-  </si>
-  <si>
-    <t>男主以一定要那么搞嘛，有的小尬[辣眼睛]</t>
-  </si>
-  <si>
     <t>芜湖～</t>
   </si>
   <si>
-    <t>我能看到这集真不容易。[滑稽]</t>
+    <t>因为漫画后面烂了，影响到动画的评分</t>
+  </si>
+  <si>
+    <t>早来的怪兽有番看[脱单doge]</t>
   </si>
   <si>
     <t>准时来了同志们</t>
   </si>
   <si>
-    <t>因为漫画后面烂了，影响到动画的评分</t>
-  </si>
-  <si>
-    <t>早来的怪兽有番看[脱单doge]</t>
+    <t>早，但是又不早</t>
   </si>
   <si>
     <t>来啦[OK]</t>
@@ -913,84 +929,81 @@
     <t>[星星眼]</t>
   </si>
   <si>
+    <t>论现在的实力第三队没有一个能打的，怪兽8号能爆杀全队[妙啊]</t>
+  </si>
+  <si>
+    <t>我先来[龙年]</t>
+  </si>
+  <si>
+    <t>来了！</t>
+  </si>
+  <si>
+    <t>来晚了[脱单doge]</t>
+  </si>
+  <si>
+    <t>[微笑]</t>
+  </si>
+  <si>
+    <t>1人正在看</t>
+  </si>
+  <si>
     <t>希望动画组接下来能够不照掰原作，还有多给亚白一些镜头[脱单doge]</t>
   </si>
   <si>
-    <t>早，但是又不早</t>
-  </si>
-  <si>
-    <t>我先来[龙年]</t>
-  </si>
-  <si>
-    <t>论现在的实力第三队没有一个能打的，怪兽8号能爆杀全队[妙啊]</t>
-  </si>
-  <si>
-    <t>来晚了[脱单doge]</t>
-  </si>
-  <si>
-    <t>[微笑]</t>
-  </si>
-  <si>
-    <t>1人正在看</t>
-  </si>
-  <si>
-    <t>来了！</t>
+    <t>这次怪兽的头有点像吉翁的陆地巡洋舰啊</t>
+  </si>
+  <si>
+    <t>啊！！！！！不够看啊！！！为什么一周只有一集啊！！！</t>
+  </si>
+  <si>
+    <t>嗨嗨嗨，来了奥</t>
+  </si>
+  <si>
+    <t>又更期待下一级啦   ! ! ! ! !   !   !</t>
+  </si>
+  <si>
+    <t>不是，你们都住这里了嘛，这么及时[妙啊]</t>
+  </si>
+  <si>
+    <t>下一集才是大战吗[笑哭]</t>
   </si>
   <si>
     <t>到现在为止感觉还可以唉，爽了，打算去看看漫画</t>
   </si>
   <si>
-    <t>这次怪兽的头有点像吉翁的陆地巡洋舰啊</t>
-  </si>
-  <si>
-    <t>又更期待下一级啦   ! ! ! ! !   !   !</t>
-  </si>
-  <si>
-    <t>嗨嗨嗨，来了奥</t>
-  </si>
-  <si>
-    <t>啊！！！！！不够看啊！！！为什么一周只有一集啊！！！</t>
-  </si>
-  <si>
-    <t>下一集才是大战吗[笑哭]</t>
-  </si>
-  <si>
-    <t>不是，你们都住这里了嘛，这么及时[妙啊]</t>
+    <t>啊………各位，这已经第六话了</t>
+  </si>
+  <si>
+    <t>趁热</t>
   </si>
   <si>
     <t>看的真是憋死我了[大哭]</t>
   </si>
   <si>
-    <t>啊………各位，这已经第六话了</t>
-  </si>
-  <si>
     <t>刚刚好[打call][龙年]</t>
   </si>
   <si>
     <t>第五十六！</t>
   </si>
   <si>
-    <t>趁热</t>
+    <t>热血少一点，逗比到时挺多[doge]</t>
   </si>
   <si>
     <t>保科好帅[星星眼]</t>
   </si>
   <si>
-    <t>热血少一点，逗比到时挺多[doge]</t>
-  </si>
-  <si>
     <t>卡点成功</t>
   </si>
   <si>
+    <t>闪现！</t>
+  </si>
+  <si>
     <t>热乎</t>
   </si>
   <si>
     <t>[给心心]</t>
   </si>
   <si>
-    <t>闪现！</t>
-  </si>
-  <si>
     <t>来啦！[doge]</t>
   </si>
   <si>
@@ -1003,40 +1016,34 @@
     <t>自卫队是炮兵部队吗？不是说日本不允许有军队吗</t>
   </si>
   <si>
+    <t>哈？都还没有预告</t>
+  </si>
+  <si>
+    <t>来力[打call]</t>
+  </si>
+  <si>
     <t>你追的番更新力[脱单doge]</t>
   </si>
   <si>
-    <t>哈？都还没有预告</t>
-  </si>
-  <si>
-    <t>来力[打call]</t>
+    <t>男主：论怪兽构造解析，在下也算是队里top级别()</t>
+  </si>
+  <si>
+    <t>来晚了</t>
   </si>
   <si>
     <t>看了漫画，这不就是另一部咒术回战吗[捂眼]</t>
   </si>
   <si>
-    <t>男主：论怪兽构造解析，在下也算是队里top级别()</t>
-  </si>
-  <si>
-    <t>来晚了</t>
-  </si>
-  <si>
-    <t>说实话故事是有一定的吸引度的 但是槽点也是颇多</t>
+    <t>感觉进度有点慢，第三集开始，每一集有印象的情节很少</t>
   </si>
   <si>
     <t>亚白还是那么的帅，大武器远距离射击太有魄力了</t>
   </si>
   <si>
-    <t>感觉进度有点慢，第三集开始，每一集有印象的情节很少</t>
+    <t>等会再看</t>
   </si>
   <si>
     <t>[打call]</t>
-  </si>
-  <si>
-    <t>等会再看</t>
-  </si>
-  <si>
-    <t>这个番如果走特摄路线，每集讲故事有主兽变身打怪不挺好的吗</t>
   </si>
   <si>
     <t>哎呀，深更半夜，一万多人围观</t>
@@ -1046,78 +1053,87 @@
 [妙啊]</t>
   </si>
   <si>
+    <t>这个番如果走特摄路线，每集讲故事有主兽变身打怪不挺好的吗</t>
+  </si>
+  <si>
     <t>好帅</t>
   </si>
   <si>
+    <t>说实话故事是有一定的吸引度的 但是槽点也是颇多</t>
+  </si>
+  <si>
+    <t>芜湖！前排前排</t>
+  </si>
+  <si>
+    <t>来了来了，卡点来了</t>
+  </si>
+  <si>
+    <t>这回来的也挺早的[OK]</t>
+  </si>
+  <si>
+    <t>蘸豆爽</t>
+  </si>
+  <si>
     <t>究极…究极超神！</t>
   </si>
   <si>
-    <t>芜湖！前排前排</t>
-  </si>
-  <si>
-    <t>来了来了，卡点来了</t>
-  </si>
-  <si>
-    <t>这回来的也挺早的[OK]</t>
-  </si>
-  <si>
-    <t>蘸豆爽</t>
-  </si>
-  <si>
     <t>谁推荐看的，等更新想死</t>
   </si>
   <si>
     <t>最早的一次[脱单doge][脱单doge][脱单doge]</t>
   </si>
   <si>
+    <t>来啦！</t>
+  </si>
+  <si>
+    <t>嗨害嗨，我又来了奥</t>
+  </si>
+  <si>
     <t>看这个里面的队员总给我有一种在玩EDF的感觉[笑哭]</t>
   </si>
   <si>
-    <t>嗨害嗨，我又来了奥</t>
-  </si>
-  <si>
-    <t>来啦！</t>
+    <t>洗完澡准时追番[星星眼][星星眼][星星眼]</t>
+  </si>
+  <si>
+    <t>[妙啊]</t>
+  </si>
+  <si>
+    <t>日本自卫队的导弹部队使用「美军」的「海马斯」导弹车，可以说非常真实啦[doge][doge]</t>
+  </si>
+  <si>
+    <t>蹲到了欧耶[星星眼][星星眼][星星眼]</t>
+  </si>
+  <si>
+    <t>想要最好观影体验的请等更新完后一口气看完，虽然我等不及就是了[妙啊]</t>
+  </si>
+  <si>
+    <t>来力[星星眼]</t>
+  </si>
+  <si>
+    <t>来咯[星星眼]</t>
+  </si>
+  <si>
+    <t>开始！</t>
+  </si>
+  <si>
+    <t>刚想睡觉发现忘看了跑来追番</t>
+  </si>
+  <si>
+    <t>蛮好看的 评分这么低</t>
+  </si>
+  <si>
+    <t>bin！</t>
+  </si>
+  <si>
+    <t>啊啊啊啊啊我刚刚还在盖亚就更新了啊啊啊</t>
   </si>
   <si>
     <t>没人夸一下bgm么，末尾9号出场时那个音乐诡异感赞爆</t>
   </si>
   <si>
-    <t>蛮好看的 评分这么低</t>
-  </si>
-  <si>
-    <t>我应该攒一集再看的[辣眼睛]</t>
-  </si>
-  <si>
-    <t>洗完澡准时追番[星星眼][星星眼][星星眼]</t>
-  </si>
-  <si>
-    <t>蹲到了欧耶[星星眼][星星眼][星星眼]</t>
-  </si>
-  <si>
-    <t>[妙啊]</t>
-  </si>
-  <si>
-    <t>想要最好观影体验的请等更新完后一口气看完，虽然我等不及就是了[妙啊]</t>
-  </si>
-  <si>
-    <t>来力[星星眼]</t>
-  </si>
-  <si>
-    <t>来咯[星星眼]</t>
-  </si>
-  <si>
-    <t>开始！</t>
-  </si>
-  <si>
-    <t>啊啊啊啊啊我刚刚还在盖亚就更新了啊啊啊</t>
-  </si>
-  <si>
     <t>好耶!</t>
   </si>
   <si>
-    <t>bin！</t>
-  </si>
-  <si>
     <t>哈哈哈哈来咯[妙啊]</t>
   </si>
   <si>
@@ -1145,6 +1161,9 @@
     <t>2</t>
   </si>
   <si>
+    <t>我看这番的原因之一就是跟特摄一样想看男主变身打怪，但是都六集了，男主变身打怪的次数好少啊</t>
+  </si>
+  <si>
     <t>搞笑也不搞笑，反而觉得有点搞笑。</t>
   </si>
   <si>
@@ -1187,10 +1206,10 @@
     <t>各位骂骂咧咧的看到第六话也是不容易</t>
   </si>
   <si>
+    <t>为什么老是摘面罩啊[捂脸]没打完呢，老是说话的时候摘下来</t>
+  </si>
+  <si>
     <t>日漫还是老样子 太磨叽了</t>
-  </si>
-  <si>
-    <t>为什么老是摘面罩啊[捂脸]没打完呢，老是说话的时候摘下来</t>
   </si>
   <si>
     <t>密恐患者这集真的很难受[大哭]</t>
@@ -1563,7 +1582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B496"/>
+  <dimension ref="A1:B502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1582,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>384</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1590,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1598,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1614,7 +1633,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1622,7 +1641,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1630,7 +1649,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>275</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1638,7 +1657,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1646,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1654,7 +1673,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1662,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1670,7 +1689,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>257</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1678,7 +1697,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1686,7 +1705,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1694,7 +1713,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1702,7 +1721,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1710,7 +1729,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1742,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>384</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1750,7 +1769,7 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1758,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1774,7 +1793,7 @@
         <v>6</v>
       </c>
       <c r="B26">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1782,7 +1801,7 @@
         <v>7</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1790,7 +1809,7 @@
         <v>8</v>
       </c>
       <c r="B28">
-        <v>275</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1798,7 +1817,7 @@
         <v>9</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1806,7 +1825,7 @@
         <v>10</v>
       </c>
       <c r="B30">
-        <v>69</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1814,7 +1833,7 @@
         <v>11</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1822,7 +1841,7 @@
         <v>12</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1830,7 +1849,7 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>257</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1838,7 +1857,7 @@
         <v>14</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1846,7 +1865,7 @@
         <v>15</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1854,7 +1873,7 @@
         <v>16</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1862,7 +1881,7 @@
         <v>17</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1870,7 +1889,7 @@
         <v>18</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1902,7 +1921,7 @@
         <v>22</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1910,7 +1929,7 @@
         <v>23</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1918,7 +1937,7 @@
         <v>24</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1926,7 +1945,7 @@
         <v>25</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1934,7 +1953,7 @@
         <v>26</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1942,7 +1961,7 @@
         <v>27</v>
       </c>
       <c r="B47">
-        <v>244</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1950,7 +1969,7 @@
         <v>28</v>
       </c>
       <c r="B48">
-        <v>214</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1958,7 +1977,7 @@
         <v>29</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1990,7 +2009,7 @@
         <v>33</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1998,7 +2017,7 @@
         <v>34</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2006,7 +2025,7 @@
         <v>35</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2014,7 +2033,7 @@
         <v>36</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2030,7 +2049,7 @@
         <v>38</v>
       </c>
       <c r="B58">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2038,7 +2057,7 @@
         <v>39</v>
       </c>
       <c r="B59">
-        <v>87</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2046,7 +2065,7 @@
         <v>40</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2054,7 +2073,7 @@
         <v>41</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2062,7 +2081,7 @@
         <v>42</v>
       </c>
       <c r="B62">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2070,7 +2089,7 @@
         <v>43</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2134,7 +2153,7 @@
         <v>51</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2155,7 +2174,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -2163,7 +2182,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -2187,7 +2206,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -2195,7 +2214,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -2203,7 +2222,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -2211,7 +2230,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -2254,7 +2273,7 @@
         <v>64</v>
       </c>
       <c r="B86">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2270,7 +2289,7 @@
         <v>66</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2278,7 +2297,7 @@
         <v>67</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2294,7 +2313,7 @@
         <v>69</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2334,7 +2353,7 @@
         <v>74</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2350,7 +2369,7 @@
         <v>76</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2358,7 +2377,7 @@
         <v>77</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2366,7 +2385,7 @@
         <v>78</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2374,7 +2393,7 @@
         <v>79</v>
       </c>
       <c r="B101">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2382,7 +2401,7 @@
         <v>80</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2390,12 +2409,12 @@
         <v>81</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -2403,10 +2422,10 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2414,7 +2433,7 @@
         <v>83</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2435,7 +2454,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -2446,7 +2465,7 @@
         <v>86</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2454,7 +2473,7 @@
         <v>87</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2462,7 +2481,7 @@
         <v>88</v>
       </c>
       <c r="B112">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2478,7 +2497,7 @@
         <v>90</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2486,7 +2505,7 @@
         <v>91</v>
       </c>
       <c r="B115">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2494,7 +2513,7 @@
         <v>92</v>
       </c>
       <c r="B116">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2502,7 +2521,7 @@
         <v>93</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2510,7 +2529,7 @@
         <v>94</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2518,7 +2537,7 @@
         <v>95</v>
       </c>
       <c r="B119">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2534,7 +2553,7 @@
         <v>97</v>
       </c>
       <c r="B121">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2542,7 +2561,7 @@
         <v>98</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2550,7 +2569,7 @@
         <v>99</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2558,7 +2577,7 @@
         <v>100</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2566,7 +2585,7 @@
         <v>101</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2574,7 +2593,7 @@
         <v>102</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2598,7 +2617,7 @@
         <v>105</v>
       </c>
       <c r="B129">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2606,7 +2625,7 @@
         <v>106</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2622,7 +2641,7 @@
         <v>108</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2630,7 +2649,7 @@
         <v>109</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2638,7 +2657,7 @@
         <v>110</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2646,7 +2665,7 @@
         <v>111</v>
       </c>
       <c r="B135">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2670,7 +2689,7 @@
         <v>114</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2678,7 +2697,7 @@
         <v>115</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2694,7 +2713,7 @@
         <v>117</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2702,7 +2721,7 @@
         <v>118</v>
       </c>
       <c r="B142">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2710,7 +2729,7 @@
         <v>119</v>
       </c>
       <c r="B143">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2718,7 +2737,7 @@
         <v>120</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2726,7 +2745,7 @@
         <v>121</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2742,7 +2761,7 @@
         <v>123</v>
       </c>
       <c r="B147">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2750,7 +2769,7 @@
         <v>124</v>
       </c>
       <c r="B148">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2758,7 +2777,7 @@
         <v>125</v>
       </c>
       <c r="B149">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2766,7 +2785,7 @@
         <v>126</v>
       </c>
       <c r="B150">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2774,7 +2793,7 @@
         <v>127</v>
       </c>
       <c r="B151">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2782,7 +2801,7 @@
         <v>128</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2790,7 +2809,7 @@
         <v>129</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2798,20 +2817,20 @@
         <v>130</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -2819,7 +2838,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -2827,7 +2846,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -2835,7 +2854,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -2843,7 +2862,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -2851,7 +2870,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -2859,7 +2878,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -2867,7 +2886,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -2875,7 +2894,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -2883,7 +2902,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -2891,7 +2910,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -2899,7 +2918,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -2907,7 +2926,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -2915,7 +2934,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -2923,7 +2942,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -2931,7 +2950,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -2939,7 +2958,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -2947,7 +2966,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -2955,7 +2974,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -2963,7 +2982,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -2971,7 +2990,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -2979,7 +2998,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -2987,7 +3006,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -2995,7 +3014,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -3003,7 +3022,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -3011,7 +3030,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -3019,7 +3038,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -3027,7 +3046,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -3035,7 +3054,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -3043,7 +3062,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -3051,7 +3070,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -3059,7 +3078,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -3067,7 +3086,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -3075,15 +3094,15 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -3091,7 +3110,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -3099,7 +3118,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -3107,7 +3126,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -3115,7 +3134,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -3123,7 +3142,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -3131,7 +3150,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -3139,7 +3158,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -3147,7 +3166,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -3155,7 +3174,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -3187,7 +3206,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -3195,7 +3214,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -3203,7 +3222,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -3211,7 +3230,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -3219,7 +3238,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -3227,7 +3246,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -3235,7 +3254,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -3243,7 +3262,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -3251,7 +3270,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -3259,7 +3278,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -3267,7 +3286,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -3275,7 +3294,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -3283,15 +3302,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -3299,7 +3318,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -3307,7 +3326,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -3334,7 +3353,7 @@
         <v>156</v>
       </c>
       <c r="B221">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3342,12 +3361,12 @@
         <v>157</v>
       </c>
       <c r="B222">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -3355,7 +3374,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -3363,7 +3382,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -3374,7 +3393,7 @@
         <v>159</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3387,7 +3406,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -3395,7 +3414,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -3403,7 +3422,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -3411,7 +3430,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -3419,7 +3438,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -3427,7 +3446,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -3435,7 +3454,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -3443,23 +3462,23 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="B236">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -3467,7 +3486,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -3475,7 +3494,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -3483,7 +3502,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -3491,7 +3510,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -3499,7 +3518,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -3507,7 +3526,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -3515,7 +3534,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -3523,7 +3542,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -3531,7 +3550,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -3539,7 +3558,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -3547,7 +3566,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -3555,7 +3574,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -3563,7 +3582,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -3571,7 +3590,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -3579,7 +3598,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -3587,15 +3606,15 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B253">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -3603,7 +3622,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -3611,7 +3630,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -3619,7 +3638,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -3627,7 +3646,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -3635,7 +3654,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -3643,7 +3662,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -3651,7 +3670,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -3659,7 +3678,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -3667,7 +3686,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -3675,7 +3694,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -3683,7 +3702,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -3691,7 +3710,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -3699,7 +3718,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -3707,7 +3726,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -3715,7 +3734,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -3723,7 +3742,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -3742,7 +3761,7 @@
         <v>193</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3787,7 +3806,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -3795,7 +3814,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -3803,7 +3822,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -3918,7 +3937,7 @@
         <v>214</v>
       </c>
       <c r="B294">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3934,7 +3953,7 @@
         <v>216</v>
       </c>
       <c r="B296">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3974,7 +3993,7 @@
         <v>221</v>
       </c>
       <c r="B301">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3995,7 +4014,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -4003,7 +4022,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -4011,7 +4030,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -4019,7 +4038,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -4043,15 +4062,15 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B310">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -4059,7 +4078,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -4067,7 +4086,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -4075,7 +4094,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -4083,15 +4102,15 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -4118,12 +4137,12 @@
         <v>235</v>
       </c>
       <c r="B319">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -4131,7 +4150,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -4139,7 +4158,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -4147,7 +4166,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -4155,7 +4174,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -4163,7 +4182,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -4171,7 +4190,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -4179,7 +4198,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -4187,7 +4206,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -4206,7 +4225,7 @@
         <v>244</v>
       </c>
       <c r="B330">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4214,7 +4233,7 @@
         <v>245</v>
       </c>
       <c r="B331">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4230,12 +4249,12 @@
         <v>247</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -4243,7 +4262,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -4251,7 +4270,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -4259,15 +4278,15 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B337">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>251</v>
+        <v>145</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -4283,18 +4302,18 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="B340">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="B341">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4307,7 +4326,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -4315,7 +4334,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -4334,7 +4353,7 @@
         <v>257</v>
       </c>
       <c r="B346">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4342,7 +4361,7 @@
         <v>258</v>
       </c>
       <c r="B347">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4350,7 +4369,7 @@
         <v>259</v>
       </c>
       <c r="B348">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4358,7 +4377,7 @@
         <v>260</v>
       </c>
       <c r="B349">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4366,7 +4385,7 @@
         <v>261</v>
       </c>
       <c r="B350">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4374,12 +4393,12 @@
         <v>262</v>
       </c>
       <c r="B351">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -4390,7 +4409,7 @@
         <v>263</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4427,15 +4446,15 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="B358">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -4443,7 +4462,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -4451,7 +4470,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -4459,7 +4478,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -4467,7 +4486,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>270</v>
+        <v>162</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -4475,7 +4494,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -4483,7 +4502,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -4491,7 +4510,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>272</v>
+        <v>115</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -4499,7 +4518,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -4518,7 +4537,7 @@
         <v>275</v>
       </c>
       <c r="B369">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4571,7 +4590,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -4579,26 +4598,26 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B378">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="B379">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4614,12 +4633,12 @@
         <v>286</v>
       </c>
       <c r="B381">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>42</v>
+        <v>287</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -4627,7 +4646,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B383">
         <v>2</v>
@@ -4635,15 +4654,15 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B384">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -4651,7 +4670,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -4659,7 +4678,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>291</v>
+        <v>38</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -4670,7 +4689,7 @@
         <v>292</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4699,7 +4718,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="B392">
         <v>1</v>
@@ -4707,15 +4726,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B393">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>168</v>
+        <v>298</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -4723,7 +4742,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -4731,7 +4750,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -4739,7 +4758,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -4747,7 +4766,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -4755,15 +4774,15 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B399">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="B400">
         <v>1</v>
@@ -4830,7 +4849,7 @@
         <v>309</v>
       </c>
       <c r="B408">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -4870,7 +4889,7 @@
         <v>314</v>
       </c>
       <c r="B413">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -4902,12 +4921,12 @@
         <v>318</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>39</v>
+        <v>319</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -4915,7 +4934,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -4923,10 +4942,10 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>320</v>
+        <v>34</v>
       </c>
       <c r="B420">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -4950,12 +4969,12 @@
         <v>323</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>114</v>
+        <v>324</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -4963,7 +4982,7 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B425">
         <v>1</v>
@@ -4971,7 +4990,7 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>325</v>
+        <v>116</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -5019,7 +5038,7 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -5027,7 +5046,7 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B433">
         <v>1</v>
@@ -5035,15 +5054,15 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B434">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B435">
         <v>1</v>
@@ -5051,7 +5070,7 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -5062,7 +5081,7 @@
         <v>335</v>
       </c>
       <c r="B437">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -5070,7 +5089,7 @@
         <v>336</v>
       </c>
       <c r="B438">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5078,12 +5097,12 @@
         <v>337</v>
       </c>
       <c r="B439">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -5091,7 +5110,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -5099,15 +5118,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -5118,7 +5137,7 @@
         <v>341</v>
       </c>
       <c r="B444">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5126,7 +5145,7 @@
         <v>342</v>
       </c>
       <c r="B445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -5134,7 +5153,7 @@
         <v>343</v>
       </c>
       <c r="B446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -5142,7 +5161,7 @@
         <v>344</v>
       </c>
       <c r="B447">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -5150,7 +5169,7 @@
         <v>345</v>
       </c>
       <c r="B448">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5166,12 +5185,12 @@
         <v>347</v>
       </c>
       <c r="B450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -5179,7 +5198,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -5203,15 +5222,15 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>76</v>
+        <v>351</v>
       </c>
       <c r="B455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -5219,18 +5238,18 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B457">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -5238,7 +5257,7 @@
         <v>354</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -5246,7 +5265,7 @@
         <v>355</v>
       </c>
       <c r="B460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -5259,31 +5278,31 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>266</v>
+        <v>357</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="B463">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>129</v>
+        <v>359</v>
       </c>
       <c r="B464">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B465">
         <v>0</v>
@@ -5291,15 +5310,15 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>129</v>
+        <v>361</v>
       </c>
       <c r="B466">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -5307,39 +5326,39 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B469">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>361</v>
+        <v>133</v>
       </c>
       <c r="B470">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B471">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>129</v>
+        <v>363</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -5347,7 +5366,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -5355,15 +5374,15 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>129</v>
+        <v>366</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -5371,15 +5390,15 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>363</v>
+        <v>133</v>
       </c>
       <c r="B476">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>364</v>
+        <v>133</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -5387,26 +5406,26 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B478">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>366</v>
+        <v>133</v>
       </c>
       <c r="B479">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>367</v>
+        <v>133</v>
       </c>
       <c r="B480">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -5414,7 +5433,7 @@
         <v>368</v>
       </c>
       <c r="B481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -5422,7 +5441,7 @@
         <v>369</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -5430,7 +5449,7 @@
         <v>370</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -5438,7 +5457,7 @@
         <v>371</v>
       </c>
       <c r="B484">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -5446,7 +5465,7 @@
         <v>372</v>
       </c>
       <c r="B485">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -5454,7 +5473,7 @@
         <v>373</v>
       </c>
       <c r="B486">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -5462,7 +5481,7 @@
         <v>374</v>
       </c>
       <c r="B487">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -5478,7 +5497,7 @@
         <v>376</v>
       </c>
       <c r="B489">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -5486,7 +5505,7 @@
         <v>377</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -5494,7 +5513,7 @@
         <v>378</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -5502,7 +5521,7 @@
         <v>379</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -5510,7 +5529,7 @@
         <v>380</v>
       </c>
       <c r="B493">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -5518,7 +5537,7 @@
         <v>381</v>
       </c>
       <c r="B494">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -5526,7 +5545,7 @@
         <v>382</v>
       </c>
       <c r="B495">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -5534,6 +5553,54 @@
         <v>383</v>
       </c>
       <c r="B496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" t="s">
+        <v>384</v>
+      </c>
+      <c r="B497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" t="s">
+        <v>385</v>
+      </c>
+      <c r="B498">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" t="s">
+        <v>386</v>
+      </c>
+      <c r="B499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" t="s">
+        <v>387</v>
+      </c>
+      <c r="B500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" t="s">
+        <v>388</v>
+      </c>
+      <c r="B501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" t="s">
+        <v>389</v>
+      </c>
+      <c r="B502">
         <v>2</v>
       </c>
     </row>
